--- a/Consumer/Costco Wholesale.xlsx
+++ b/Consumer/Costco Wholesale.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C8A0A9-B921-E64D-B7B3-A6E6059AAA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7590B4AB-C788-BE4F-930F-9A45CC0220CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -329,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Costco Wholesale</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -941,18 +961,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -962,10 +970,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -989,12 +993,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1006,10 +1004,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1020,6 +1014,26 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2394,6 +2408,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1q6k2&amp;q=XNAS%3aCOST&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1q6k2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>564.75</v>
+    <v>406.51010000000002</v>
+    <v>0.79379999999999995</v>
+    <v>1.73</v>
+    <v>3.467E-3</v>
+    <v>0.01</v>
+    <v>1.997E-5</v>
+    <v>USD</v>
+    <v>Costco Wholesale Corporation is a global retailer with warehouse club operations in eight countries. The Company operates an international chain of membership warehouses, mainly under the Costco Wholesale name. The Company's warehouses are designed to help small- to medium-sized businesses reduce costs in purchasing for resale and for everyday business use. The Company offers merchandise in various categories, which include groceries, candy, appliances, television and media, automotive supplies, tires, toys, hardware, sporting goods, jewelry, watches, cameras, books, housewares, apparel, health and beauty aids, furniture, office supplies and office equipment. Members can also shop for private label Kirkland Signature products. It operates approximately 838 warehouses worldwide. It also operates self-service gasoline stations. The Company operates e-commerce websites in the United States, Canada, Mexico, United Kingdom, Korea, Taiwan, Japan, and Australia.</v>
+    <v>304000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>999 Lake Dr, ISSAQUAH, WA, 98027- US</v>
+    <v>501.74</v>
+    <v>Diversified Retail</v>
+    <v>Stock</v>
+    <v>45055.998605647655</v>
+    <v>0</v>
+    <v>496.39</v>
+    <v>222091951728</v>
+    <v>COSTCO WHOLESALE CORPORATION</v>
+    <v>COSTCO WHOLESALE CORPORATION</v>
+    <v>496.96</v>
+    <v>36.7988</v>
+    <v>499.06</v>
+    <v>500.79</v>
+    <v>500.8</v>
+    <v>443483200</v>
+    <v>COST</v>
+    <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
+    <v>1571815</v>
+    <v>1741178</v>
+    <v>1987</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2694,10 +3148,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW117" sqref="AW117"/>
+      <selection pane="bottomRight" activeCell="AN103" sqref="AN103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2708,8 +3162,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1985</v>
@@ -3105,21 +3559,21 @@
         <v>313600000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3545,16 +3999,16 @@
         <v>27572000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3813,7 +4267,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3968,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4353,21 +4807,21 @@
         <v>19779000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4776,16 +5230,16 @@
         <v>19779000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4912,15 +5366,15 @@
       </c>
       <c r="AT16" s="29">
         <f>AU101/AM3</f>
-        <v>0.95391297306943257</v>
+        <v>0.97857694390933847</v>
       </c>
       <c r="AU16" s="29">
         <f>AU101/AM28</f>
-        <v>37.045579207734427</v>
+        <v>38.003414053388092</v>
       </c>
       <c r="AV16" s="30">
         <f>AU101/AM106</f>
-        <v>61.83786486432448</v>
+        <v>63.436718574121677</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5161,7 +5615,7 @@
         <v>1900000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5289,7 +5743,7 @@
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6395,7 +6849,7 @@
     </row>
     <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7144,7 +7598,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -12534,7 +12988,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
@@ -13045,10 +13499,10 @@
       <c r="AM83" s="1">
         <v>-4003000000</v>
       </c>
-      <c r="AT83" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU83" s="33"/>
+      <c r="AT83" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU83" s="58"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13168,10 +13622,10 @@
       <c r="AM84" s="1">
         <v>1891000000</v>
       </c>
-      <c r="AT84" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU84" s="35"/>
+      <c r="AT84" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU84" s="60"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13292,7 +13746,7 @@
         <v>549000000</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13418,7 +13872,7 @@
         <v>453000000</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -13544,7 +13998,7 @@
         <v>7392000000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -13669,17 +14123,17 @@
       <c r="AM88" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AT88" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU88" s="37">
+      <c r="AT88" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>1.7479809713463877E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
@@ -13834,7 +14288,7 @@
         <v>1.7144443367378411E-2</v>
       </c>
       <c r="AT89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14085,10 +14539,10 @@
       <c r="AM91" s="1">
         <v>-1121000000</v>
       </c>
-      <c r="AT91" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU91" s="37">
+      <c r="AT91" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.24553571428571427</v>
       </c>
@@ -14211,10 +14665,10 @@
       <c r="AM92" s="1">
         <v>1145000000</v>
       </c>
-      <c r="AT92" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU92" s="39">
+      <c r="AT92" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU92" s="35">
         <f>AU88*(1-AU91)</f>
         <v>1.3187892149890157E-2</v>
       </c>
@@ -14337,10 +14791,10 @@
       <c r="AM93" s="1">
         <v>-48000000</v>
       </c>
-      <c r="AT93" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU93" s="35"/>
+      <c r="AT93" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU93" s="60"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14461,9 +14915,9 @@
         <v>-3915000000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU94" s="40">
+        <v>135</v>
+      </c>
+      <c r="AU94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14585,11 +15039,12 @@
       <c r="AM95" s="1">
         <v>-800000000</v>
       </c>
-      <c r="AT95" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU95" s="42">
-        <v>0.79</v>
+      <c r="AT95" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU95" s="63" cm="1">
+        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
+        <v>0.79379999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14711,9 +15166,9 @@
         <v>92</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU96" s="40">
+        <v>137</v>
+      </c>
+      <c r="AU96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14835,12 +15290,12 @@
       <c r="AM97" s="1">
         <v>-439000000</v>
       </c>
-      <c r="AT97" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU97" s="39">
+      <c r="AT97" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.4959500000000012E-2</v>
+        <v>7.5123090000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14961,10 +15416,10 @@
       <c r="AM98" s="1">
         <v>-1498000000</v>
       </c>
-      <c r="AT98" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU98" s="35"/>
+      <c r="AT98" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU98" s="60"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15085,7 +15540,7 @@
         <v>-1546000000</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
@@ -15210,12 +15665,12 @@
       <c r="AM100" s="10">
         <v>-4283000000</v>
       </c>
-      <c r="AT100" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU100" s="37">
+      <c r="AT100" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>4.007832723290683E-2</v>
+        <v>3.9107700342260063E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15336,12 +15791,12 @@
       <c r="AM101" s="1">
         <v>-249000000</v>
       </c>
-      <c r="AT101" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU101" s="57">
-        <f>AO116*AM34</f>
-        <v>216494364890</v>
+      <c r="AT101" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU101" s="49" cm="1">
+        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
+        <v>222091951728</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15462,12 +15917,12 @@
       <c r="AM102" s="10">
         <v>-1055000000</v>
       </c>
-      <c r="AT102" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU102" s="37">
+      <c r="AT102" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.95992167276709317</v>
+        <v>0.96089229965773992</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15588,12 +16043,12 @@
       <c r="AM103" s="1">
         <v>11258000000</v>
       </c>
-      <c r="AT103" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU103" s="43">
+      <c r="AT103" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU103" s="37">
         <f>AU99+AU101</f>
-        <v>225533364890</v>
+        <v>231130951728</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15714,14 +16169,14 @@
       <c r="AM104" s="11">
         <v>10203000000</v>
       </c>
-      <c r="AT104" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU104" s="35"/>
+      <c r="AT104" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU104" s="60"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15879,11 +16334,11 @@
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
       <c r="AT105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2483797286880508E-2</v>
+        <v>7.2700946841839323E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16004,33 +16459,33 @@
       <c r="AM106" s="1">
         <v>3501000000</v>
       </c>
-      <c r="AN106" s="44">
+      <c r="AN106" s="38">
         <f>AM106*(1+$AU$106)</f>
         <v>3734982980.8982759</v>
       </c>
-      <c r="AO106" s="44">
+      <c r="AO106" s="38">
         <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
         <v>3984603789.6600313</v>
       </c>
-      <c r="AP106" s="44">
+      <c r="AP106" s="38">
         <f t="shared" si="17"/>
         <v>4250907552.1288176</v>
       </c>
-      <c r="AQ106" s="44">
+      <c r="AQ106" s="38">
         <f t="shared" si="17"/>
         <v>4535009243.2370987</v>
       </c>
-      <c r="AR106" s="44">
+      <c r="AR106" s="38">
         <f t="shared" si="17"/>
         <v>4838098355.2433395</v>
       </c>
-      <c r="AS106" s="45" t="s">
+      <c r="AS106" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU106" s="47">
+      <c r="AU106" s="41">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>6.6833185060918551E-2</v>
       </c>
@@ -16075,150 +16530,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="45"/>
-      <c r="AO107" s="45"/>
-      <c r="AP107" s="45"/>
-      <c r="AQ107" s="45"/>
-      <c r="AR107" s="48">
+      <c r="AN107" s="39"/>
+      <c r="AO107" s="39"/>
+      <c r="AP107" s="39"/>
+      <c r="AQ107" s="39"/>
+      <c r="AR107" s="42">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>104436694145.65923</v>
-      </c>
-      <c r="AS107" s="49" t="s">
+        <v>103961265812.33298</v>
+      </c>
+      <c r="AS107" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU107" s="51">
+      <c r="AU107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="48">
+      <c r="AN108" s="42">
         <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
         <v>3734982980.8982759</v>
       </c>
-      <c r="AO108" s="48">
+      <c r="AO108" s="42">
         <f t="shared" si="18"/>
         <v>3984603789.6600313</v>
       </c>
-      <c r="AP108" s="48">
+      <c r="AP108" s="42">
         <f t="shared" si="18"/>
         <v>4250907552.1288176</v>
       </c>
-      <c r="AQ108" s="48">
+      <c r="AQ108" s="42">
         <f>AQ107+AQ106</f>
         <v>4535009243.2370987</v>
       </c>
-      <c r="AR108" s="48">
+      <c r="AR108" s="42">
         <f>AR107+AR106</f>
-        <v>109274792500.90256</v>
-      </c>
-      <c r="AS108" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT108" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU108" s="53">
+        <v>108799364167.57632</v>
+      </c>
+      <c r="AS108" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT108" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU108" s="47">
         <f>AU105</f>
-        <v>7.2483797286880508E-2</v>
+        <v>7.2700946841839323E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO109" s="55"/>
+      <c r="AN109" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO109" s="62"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO110" s="57">
+      <c r="AN110" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO110" s="49">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>90833910620.268494</v>
+        <v>90414289904.14418</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO111" s="57">
+      <c r="AN111" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO111" s="49">
         <f>AM40</f>
         <v>11049000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO112" s="57">
+      <c r="AN112" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO112" s="49">
         <f>AU99</f>
         <v>9039000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO113" s="57">
+      <c r="AN113" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO113" s="49">
         <f>AO110+AO111-AO112</f>
-        <v>92843910620.268494</v>
+        <v>92424289904.14418</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO114" s="58">
+      <c r="AN114" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO114" s="50">
         <f>AM34*(1+(5*AS16))</f>
         <v>448597263.29333401</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO115" s="60">
+      <c r="AN115" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO115" s="52">
         <f>AO113/AO114</f>
-        <v>206.9649510089825</v>
+        <v>206.02954468696504</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO116" s="62">
-        <v>486.77</v>
+      <c r="AN116" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO116" s="64" cm="1">
+        <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
+        <v>500.79</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO117" s="64">
+      <c r="AN117" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO117" s="54">
         <f>AO115/AO116-1</f>
-        <v>-0.57481983070242104</v>
+        <v>-0.58859093694569575</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO118" s="65" t="str">
+      <c r="AN118" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO118" s="55" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/COST" display="ROIC.AI | COST" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Costco Wholesale.xlsx
+++ b/Consumer/Costco Wholesale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7590B4AB-C788-BE4F-930F-9A45CC0220CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E265AA-8C2A-A341-AF40-837634BF4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -551,16 +551,26 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -893,12 +903,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -950,12 +969,6 @@
     <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1027,14 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,14 +1047,20 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2529,12 +2556,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>564.75</v>
-    <v>406.51010000000002</v>
-    <v>0.79379999999999995</v>
-    <v>1.73</v>
-    <v>3.467E-3</v>
-    <v>0.01</v>
-    <v>1.997E-5</v>
+    <v>443.2</v>
+    <v>0.79259999999999997</v>
+    <v>3.53</v>
+    <v>6.9479999999999993E-3</v>
     <v>USD</v>
     <v>Costco Wholesale Corporation is a global retailer with warehouse club operations in eight countries. The Company operates an international chain of membership warehouses, mainly under the Costco Wholesale name. The Company's warehouses are designed to help small- to medium-sized businesses reduce costs in purchasing for resale and for everyday business use. The Company offers merchandise in various categories, which include groceries, candy, appliances, television and media, automotive supplies, tires, toys, hardware, sporting goods, jewelry, watches, cameras, books, housewares, apparel, health and beauty aids, furniture, office supplies and office equipment. Members can also shop for private label Kirkland Signature products. It operates approximately 838 warehouses worldwide. It also operates self-service gasoline stations. The Company operates e-commerce websites in the United States, Canada, Mexico, United Kingdom, Korea, Taiwan, Japan, and Australia.</v>
     <v>304000</v>
@@ -2542,25 +2567,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027- US</v>
-    <v>501.74</v>
+    <v>513.86500000000001</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45055.998605647655</v>
+    <v>45077.999619930466</v>
     <v>0</v>
-    <v>496.39</v>
-    <v>222091951728</v>
+    <v>504.95</v>
+    <v>226734646320</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>496.96</v>
-    <v>36.7988</v>
-    <v>499.06</v>
-    <v>500.79</v>
-    <v>500.8</v>
-    <v>443483200</v>
+    <v>508.86</v>
+    <v>37.899799999999999</v>
+    <v>508.03</v>
+    <v>511.56</v>
+    <v>443222000</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>1571815</v>
-    <v>1741178</v>
+    <v>101</v>
+    <v>1835110</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2592,8 +2616,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2614,7 +2636,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2631,7 +2652,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2642,16 +2663,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2717,19 +2735,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2774,9 +2786,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2784,9 +2793,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3148,10 +3154,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN103" sqref="AN103"/>
+      <selection pane="bottomRight" activeCell="AO122" sqref="AO122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3543,20 +3549,20 @@
       <c r="AM3" s="1">
         <v>226954000000</v>
       </c>
-      <c r="AN3" s="1">
-        <v>243000000000</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>259200000000</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>277000000000</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>297500000000</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>313600000000</v>
+      <c r="AN3" s="70">
+        <v>242400000000</v>
+      </c>
+      <c r="AO3" s="70">
+        <v>254900000000</v>
+      </c>
+      <c r="AP3" s="70">
+        <v>272500000000</v>
+      </c>
+      <c r="AQ3" s="70">
+        <v>294300000000</v>
+      </c>
+      <c r="AR3" s="70">
+        <v>314900000000</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>109</v>
@@ -3726,23 +3732,23 @@
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>7.0701551856323208E-2</v>
+        <v>6.8057844320875693E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>6.6666666666666652E-2</v>
+        <v>5.156765676567665E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8672839506172867E-2</v>
+        <v>6.9046684974499728E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>7.400722021660644E-2</v>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>5.4117647058823604E-2</v>
+        <v>6.9996602106693784E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -5364,20 +5370,20 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>1.726904036736459E-3</v>
       </c>
-      <c r="AT16" s="29">
+      <c r="AT16" s="71">
         <f>AU101/AM3</f>
-        <v>0.97857694390933847</v>
-      </c>
-      <c r="AU16" s="29">
+        <v>0.99903348837209305</v>
+      </c>
+      <c r="AU16" s="71">
         <f>AU101/AM28</f>
-        <v>38.003414053388092</v>
-      </c>
-      <c r="AV16" s="30">
+        <v>38.797851868583159</v>
+      </c>
+      <c r="AV16" s="72">
         <f>AU101/AM106</f>
-        <v>63.436718574121677</v>
+        <v>64.762823856041138</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>158000000</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5617,8 +5623,17 @@
       <c r="AS18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="AT18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV18" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5736,12 +5751,39 @@
       <c r="AM19" s="10">
         <v>9827000000</v>
       </c>
-      <c r="AS19" s="31">
+      <c r="AN19" s="68">
+        <v>10540000000</v>
+      </c>
+      <c r="AO19" s="68">
+        <v>11298000000</v>
+      </c>
+      <c r="AP19" s="68">
+        <v>12473000000</v>
+      </c>
+      <c r="AQ19" s="68">
+        <v>13849000000</v>
+      </c>
+      <c r="AR19" s="68">
+        <v>15193000000</v>
+      </c>
+      <c r="AS19" s="29">
         <f>AM40-AM56-AM61</f>
         <v>2010000000</v>
       </c>
+      <c r="AT19" s="71">
+        <f>AU101/AN3</f>
+        <v>0.93537395346534657</v>
+      </c>
+      <c r="AU19" s="71">
+        <f>AU101/AN28</f>
+        <v>35.109112158563022</v>
+      </c>
+      <c r="AV19" s="72">
+        <f>AU101/AN105</f>
+        <v>43.974912009309541</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5894,8 +5936,28 @@
         <f t="shared" ref="AM20" si="5">(AM19/AL19)-1</f>
         <v>0.14801401869158881</v>
       </c>
+      <c r="AN20" s="16">
+        <f t="shared" ref="AN20" si="6">(AN19/AM19)-1</f>
+        <v>7.2555205047318605E-2</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" ref="AO20" si="7">(AO19/AN19)-1</f>
+        <v>7.1916508538899526E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" ref="AP20" si="8">(AP19/AO19)-1</f>
+        <v>0.10400070808992745</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" ref="AQ20" si="9">(AQ19/AP19)-1</f>
+        <v>0.11031828750100225</v>
+      </c>
+      <c r="AR20" s="16">
+        <f t="shared" ref="AR20" si="10">(AR19/AQ19)-1</f>
+        <v>9.7046718174597535E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6013,8 +6075,28 @@
       <c r="AM21" s="2">
         <v>4.3299999999999998E-2</v>
       </c>
+      <c r="AN21" s="69">
+        <f>AN19/AN3</f>
+        <v>4.3481848184818483E-2</v>
+      </c>
+      <c r="AO21" s="69">
+        <f t="shared" ref="AO21:AR21" si="11">AO19/AO3</f>
+        <v>4.4323264025107882E-2</v>
+      </c>
+      <c r="AP21" s="69">
+        <f t="shared" si="11"/>
+        <v>4.5772477064220184E-2</v>
+      </c>
+      <c r="AQ21" s="69">
+        <f t="shared" si="11"/>
+        <v>4.7057424396873937E-2</v>
+      </c>
+      <c r="AR21" s="69">
+        <f t="shared" si="11"/>
+        <v>4.8247062559542711E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6133,7 +6215,7 @@
         <v>7793000000</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6252,7 +6334,7 @@
         <v>3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6371,7 +6453,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6490,7 +6572,7 @@
         <v>7840000000</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6609,7 +6691,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6728,7 +6810,7 @@
         <v>1925000000</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6846,8 +6928,23 @@
       <c r="AM28" s="11">
         <v>5844000000</v>
       </c>
+      <c r="AN28" s="65">
+        <v>6458000000</v>
+      </c>
+      <c r="AO28" s="65">
+        <v>6912000000</v>
+      </c>
+      <c r="AP28" s="65">
+        <v>7750000000</v>
+      </c>
+      <c r="AQ28" s="65">
+        <v>8243000000</v>
+      </c>
+      <c r="AR28" s="65">
+        <v>8999000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -6865,143 +6962,163 @@
         <v>0.29331514324693053</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AK29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AK29" si="12">(F28/E28)-1</f>
         <v>0.23417721518987333</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>7.1794871794871762E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.9377990430621983E-2</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-3.7285607755406458E-2</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.72889233152594879</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.5035842293906811</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-2.1903914590747329</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.85949177877428995</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.25482315112540199</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.47277386290839196</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.13592866463679865</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.58932041278630765</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-4.6478112622478585E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16259058046235686</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.0025014893218849E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.22384604715672674</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.20478290285621026</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.7741794689452934E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.853038618945535E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.18466768627190211</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-0.15336490674150738</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19981583793738489</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.12202609363008432</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16894664842681251</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19309537741369232</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.3182932810200736E-3</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.15500485908649164</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>-1.13588557004628E-2</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16983949234789097</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16751754945756225</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.3741459415140671E-2</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29" si="7">(AL28/AK28)-1</f>
+        <f t="shared" ref="AL29" si="13">(AL28/AK28)-1</f>
         <v>0.25112443778110949</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" ref="AM29" si="8">(AM28/AL28)-1</f>
+        <f t="shared" ref="AM29" si="14">(AM28/AL28)-1</f>
         <v>0.16716596764529656</v>
       </c>
+      <c r="AN29" s="16">
+        <f t="shared" ref="AN29" si="15">(AN28/AM28)-1</f>
+        <v>0.10506502395619433</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" ref="AO29" si="16">(AO28/AN28)-1</f>
+        <v>7.0300402601424672E-2</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" ref="AP29" si="17">(AP28/AO28)-1</f>
+        <v>0.12123842592592582</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" ref="AQ29" si="18">(AQ28/AP28)-1</f>
+        <v>6.3612903225806372E-2</v>
+      </c>
+      <c r="AR29" s="16">
+        <f t="shared" ref="AR29" si="19">(AR28/AQ28)-1</f>
+        <v>9.1714181729952715E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -7119,8 +7236,28 @@
       <c r="AM30" s="2">
         <v>2.5700000000000001E-2</v>
       </c>
+      <c r="AN30" s="66">
+        <f>AN28/AN3</f>
+        <v>2.6641914191419144E-2</v>
+      </c>
+      <c r="AO30" s="66">
+        <f t="shared" ref="AO30:AR30" si="20">AO28/AO3</f>
+        <v>2.7116516280894468E-2</v>
+      </c>
+      <c r="AP30" s="66">
+        <f t="shared" si="20"/>
+        <v>2.8440366972477066E-2</v>
+      </c>
+      <c r="AQ30" s="66">
+        <f t="shared" si="20"/>
+        <v>2.8008834522595991E-2</v>
+      </c>
+      <c r="AR30" s="66">
+        <f t="shared" si="20"/>
+        <v>2.857732613528104E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7238,8 +7375,23 @@
       <c r="AM31" s="12">
         <v>13.17</v>
       </c>
+      <c r="AN31" s="67">
+        <v>14.56</v>
+      </c>
+      <c r="AO31" s="67">
+        <v>15.59</v>
+      </c>
+      <c r="AP31" s="67">
+        <v>17.48</v>
+      </c>
+      <c r="AQ31" s="67">
+        <v>18.59</v>
+      </c>
+      <c r="AR31" s="67">
+        <v>20.29</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7606,147 +7758,147 @@
         <v>2.4347822566351613E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AK35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AK35" si="21">(D34-C34)/C34</f>
         <v>6.6699005206619699E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-1.5955864971260298E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>3.0205904782222584E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.4161893816647198E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.23343315771857359</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-9.1778873974645792E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.83262586886233414</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-3.1568790322580642E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-8.9700647750676613E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>3.6438038842189512E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.8550853792581346E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.404403947833452E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.3049151927677768E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.1759853254189891E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.8918015626280906E-4</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>7.2190102705395028E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.3353864900618034E-4</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>6.5362613336226285E-3</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.9848318717238148E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-2.3766601969372098E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-4.7258093729246511E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-2.9282778422387853E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-8.5224203133441381E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.2523441721496456E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-6.448864273381618E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-8.3977666138562029E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.5923304345055339E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>4.4788791224756649E-3</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>5.2205159496932104E-4</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-3.2820137514795039E-3</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>-7.3878843229547913E-4</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.0343042203307955E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.4647265715178101E-3</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.2080587370716808E-3</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" ref="AL35" si="10">(AL34-AK34)/AK34</f>
+        <f t="shared" ref="AL35" si="22">(AL34-AK34)/AK34</f>
         <v>1.0024757772566406E-3</v>
       </c>
       <c r="AM35" s="22">
-        <f t="shared" ref="AM35" si="11">(AM34-AL34)/AL34</f>
+        <f t="shared" ref="AM35" si="23">(AM34-AL34)/AL34</f>
         <v>9.2495487750536749E-4</v>
       </c>
     </row>
@@ -12991,155 +13143,155 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:AM80" si="24">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.5342331494497493E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.437584994739948E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.3280661305741437E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.4309793518060866E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.7102590437064933E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2.9030539772727272E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.390734860024613E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.8662724584944282E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.9837240844797523E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.8424591738712775E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.8964525909772566E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.7118990651291367E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.3940866334233317E-3</v>
       </c>
       <c r="AM80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3.1900737594402389E-3</v>
       </c>
     </row>
@@ -13499,10 +13651,10 @@
       <c r="AM83" s="1">
         <v>-4003000000</v>
       </c>
-      <c r="AT83" s="57" t="s">
+      <c r="AT83" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="58"/>
+      <c r="AU83" s="60"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13622,10 +13774,10 @@
       <c r="AM84" s="1">
         <v>1891000000</v>
       </c>
-      <c r="AT84" s="59" t="s">
+      <c r="AT84" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="60"/>
+      <c r="AU84" s="62"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14123,10 +14275,10 @@
       <c r="AM88" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AT88" s="32" t="s">
+      <c r="AT88" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AU88" s="33">
+      <c r="AU88" s="31">
         <f>AU85/(AU86+AU87)</f>
         <v>1.7479809713463877E-2</v>
       </c>
@@ -14136,155 +14288,155 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AM89" si="25">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.2685872847465929E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.0587345124373402E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.8950606992922202E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.9328980082511404E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.5170607138379516E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.8797495236823904E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.9632690900764553E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.5901413129583727E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.5298979629155543E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.3564167961137045E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.869682400932401E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.8192068621679141E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>4.1599777590258617E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.6794067121420628E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.9054048235171563E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4667722313629587E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.8804698451473562E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.0158641152906158E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.1517013429548423E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.205442046978727E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7501610148133628E-2</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.3535011418161292E-2</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4508238205027273E-2</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.4928835853414972E-2</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.9808665221195176E-2</v>
       </c>
       <c r="AE89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7693536931818181E-2</v>
       </c>
       <c r="AF89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.0593981015327154E-2</v>
       </c>
       <c r="AG89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.231319333889268E-2</v>
       </c>
       <c r="AH89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.9391590776981205E-2</v>
       </c>
       <c r="AI89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.0971068542690853E-2</v>
       </c>
       <c r="AJ89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.9632882130671957E-2</v>
       </c>
       <c r="AK89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.685046263814681E-2</v>
       </c>
       <c r="AL89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.8312756151463029E-2</v>
       </c>
       <c r="AM89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.7144443367378411E-2</v>
       </c>
       <c r="AT89" s="23" t="s">
@@ -14539,10 +14691,10 @@
       <c r="AM91" s="1">
         <v>-1121000000</v>
       </c>
-      <c r="AT91" s="32" t="s">
+      <c r="AT91" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="AU91" s="33">
+      <c r="AU91" s="31">
         <f>AU89/AU90</f>
         <v>0.24553571428571427</v>
       </c>
@@ -14665,10 +14817,10 @@
       <c r="AM92" s="1">
         <v>1145000000</v>
       </c>
-      <c r="AT92" s="34" t="s">
+      <c r="AT92" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="35">
+      <c r="AU92" s="33">
         <f>AU88*(1-AU91)</f>
         <v>1.3187892149890157E-2</v>
       </c>
@@ -14791,10 +14943,10 @@
       <c r="AM93" s="1">
         <v>-48000000</v>
       </c>
-      <c r="AT93" s="59" t="s">
+      <c r="AT93" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="60"/>
+      <c r="AU93" s="62"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14917,7 +15069,7 @@
       <c r="AT94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="36">
+      <c r="AU94" s="34">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15039,12 +15191,12 @@
       <c r="AM95" s="1">
         <v>-800000000</v>
       </c>
-      <c r="AT95" s="56" t="s">
+      <c r="AT95" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="63" cm="1">
+      <c r="AU95" s="55" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.79379999999999995</v>
+        <v>0.79259999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15168,7 +15320,7 @@
       <c r="AT96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="36">
+      <c r="AU96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15290,12 +15442,12 @@
       <c r="AM97" s="1">
         <v>-439000000</v>
       </c>
-      <c r="AT97" s="34" t="s">
+      <c r="AT97" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="35">
+      <c r="AU97" s="33">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.5123090000000003E-2</v>
+        <v>7.5071429999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15416,10 +15568,10 @@
       <c r="AM98" s="1">
         <v>-1498000000</v>
       </c>
-      <c r="AT98" s="59" t="s">
+      <c r="AT98" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="60"/>
+      <c r="AU98" s="62"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15665,12 +15817,12 @@
       <c r="AM100" s="10">
         <v>-4283000000</v>
       </c>
-      <c r="AT100" s="32" t="s">
+      <c r="AT100" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="AU100" s="33">
+      <c r="AU100" s="31">
         <f>AU99/AU103</f>
-        <v>3.9107700342260063E-2</v>
+        <v>3.8337618054784472E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15791,12 +15943,12 @@
       <c r="AM101" s="1">
         <v>-249000000</v>
       </c>
-      <c r="AT101" s="56" t="s">
+      <c r="AT101" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="49" cm="1">
+      <c r="AU101" s="47" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>222091951728</v>
+        <v>226734646320</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15917,12 +16069,12 @@
       <c r="AM102" s="10">
         <v>-1055000000</v>
       </c>
-      <c r="AT102" s="32" t="s">
+      <c r="AT102" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="AU102" s="33">
+      <c r="AU102" s="31">
         <f>AU101/AU103</f>
-        <v>0.96089229965773992</v>
+        <v>0.96166238194521558</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16043,12 +16195,12 @@
       <c r="AM103" s="1">
         <v>11258000000</v>
       </c>
-      <c r="AT103" s="34" t="s">
+      <c r="AT103" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="37">
+      <c r="AU103" s="35">
         <f>AU99+AU101</f>
-        <v>231130951728</v>
+        <v>235773646320</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16169,10 +16321,10 @@
       <c r="AM104" s="11">
         <v>10203000000</v>
       </c>
-      <c r="AT104" s="59" t="s">
+      <c r="AT104" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="60"/>
+      <c r="AU104" s="62"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16200,145 +16352,155 @@
         <v>-4.2895442359249358E-2</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AK105" si="14">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AK105" si="26">(H106/G106)-1</f>
         <v>-0.4509803921568627</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>13.244897959183673</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.15042979942693413</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-4.3844856661045539E-2</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.11199294532627868</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.68120539254559875</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-1.4577114427860698</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>3.5027173913043477</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-7.664453832226914E-2</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-2.0330915032679737</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.625446815510271</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.95093328449634451</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-35.207985463117573</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.000110545939016</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.43456293341123764</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.21964313370045674</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.12360363936276997</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.1637500814385302</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.45775118507207391</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.0486935866983371</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.10608695652173905</v>
       </c>
       <c r="AC105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.1734800838574424</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.14140773620798985</v>
       </c>
       <c r="AE105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.47045790251107822</v>
       </c>
       <c r="AF105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-4.9723756906077332E-2</v>
       </c>
       <c r="AG105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.66014799154334036</v>
       </c>
       <c r="AH105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>5.5692068429237951</v>
       </c>
       <c r="AI105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.3359375</v>
       </c>
       <c r="AJ105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.19714795008912667</v>
       </c>
       <c r="AK105" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.8019654556283502</v>
       </c>
       <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="15">(AL106/AK106)-1</f>
+        <f t="shared" ref="AL105" si="27">(AL106/AK106)-1</f>
         <v>-0.11254338125929597</v>
       </c>
       <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="16">(AM106/AL106)-1</f>
+        <f t="shared" ref="AM105" si="28">(AM106/AL106)-1</f>
         <v>-0.34804469273743022</v>
       </c>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
+      <c r="AN105" s="63">
+        <v>5156000000</v>
+      </c>
+      <c r="AO105" s="63">
+        <v>5461000000</v>
+      </c>
+      <c r="AP105" s="63">
+        <v>6582000000</v>
+      </c>
+      <c r="AQ105" s="63">
+        <v>7726000000</v>
+      </c>
+      <c r="AR105" s="63">
+        <v>8253000000</v>
+      </c>
       <c r="AS105" s="15"/>
       <c r="AT105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2700946841839323E-2</v>
+        <v>7.2698962562023697E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16459,35 +16621,35 @@
       <c r="AM106" s="1">
         <v>3501000000</v>
       </c>
-      <c r="AN106" s="38">
+      <c r="AN106" s="36">
         <f>AM106*(1+$AU$106)</f>
-        <v>3734982980.8982759</v>
-      </c>
-      <c r="AO106" s="38">
-        <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
-        <v>3984603789.6600313</v>
-      </c>
-      <c r="AP106" s="38">
-        <f t="shared" si="17"/>
-        <v>4250907552.1288176</v>
-      </c>
-      <c r="AQ106" s="38">
-        <f t="shared" si="17"/>
-        <v>4535009243.2370987</v>
-      </c>
-      <c r="AR106" s="38">
-        <f t="shared" si="17"/>
-        <v>4838098355.2433395</v>
-      </c>
-      <c r="AS106" s="39" t="s">
+        <v>3738135885.4750562</v>
+      </c>
+      <c r="AO106" s="36">
+        <f t="shared" ref="AO106:AR106" si="29">AN106*(1+$AU$106)</f>
+        <v>3991333875.5430965</v>
+      </c>
+      <c r="AP106" s="36">
+        <f t="shared" si="29"/>
+        <v>4261681916.9037075</v>
+      </c>
+      <c r="AQ106" s="36">
+        <f t="shared" si="29"/>
+        <v>4550341646.9745426</v>
+      </c>
+      <c r="AR106" s="36">
+        <f t="shared" si="29"/>
+        <v>4858553385.2405615</v>
+      </c>
+      <c r="AS106" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="AT106" s="40" t="s">
+      <c r="AT106" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="41">
+      <c r="AU106" s="39">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>6.6833185060918551E-2</v>
+        <v>6.7733757633549191E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16530,139 +16692,139 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="39"/>
-      <c r="AO107" s="39"/>
-      <c r="AP107" s="39"/>
-      <c r="AQ107" s="39"/>
-      <c r="AR107" s="42">
-        <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>103961265812.33298</v>
-      </c>
-      <c r="AS107" s="43" t="s">
+      <c r="AN107" s="37"/>
+      <c r="AO107" s="37"/>
+      <c r="AP107" s="37"/>
+      <c r="AQ107" s="37"/>
+      <c r="AR107" s="64">
+        <f>AR105*(1+AU107)/(AU108-AU107)</f>
+        <v>177348196808.26828</v>
+      </c>
+      <c r="AS107" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="44" t="s">
+      <c r="AT107" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="45">
+      <c r="AU107" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="42">
-        <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
-        <v>3734982980.8982759</v>
-      </c>
-      <c r="AO108" s="42">
-        <f t="shared" si="18"/>
-        <v>3984603789.6600313</v>
-      </c>
-      <c r="AP108" s="42">
-        <f t="shared" si="18"/>
-        <v>4250907552.1288176</v>
-      </c>
-      <c r="AQ108" s="42">
+      <c r="AN108" s="40">
+        <f t="shared" ref="AN108:AP108" si="30">AN107+AN106</f>
+        <v>3738135885.4750562</v>
+      </c>
+      <c r="AO108" s="40">
+        <f t="shared" si="30"/>
+        <v>3991333875.5430965</v>
+      </c>
+      <c r="AP108" s="40">
+        <f t="shared" si="30"/>
+        <v>4261681916.9037075</v>
+      </c>
+      <c r="AQ108" s="40">
         <f>AQ107+AQ106</f>
-        <v>4535009243.2370987</v>
-      </c>
-      <c r="AR108" s="42">
-        <f>AR107+AR106</f>
-        <v>108799364167.57632</v>
-      </c>
-      <c r="AS108" s="43" t="s">
+        <v>4550341646.9745426</v>
+      </c>
+      <c r="AR108" s="64">
+        <f>AR107+AR105</f>
+        <v>185601196808.26828</v>
+      </c>
+      <c r="AS108" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="AT108" s="46" t="s">
+      <c r="AT108" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="47">
+      <c r="AU108" s="45">
         <f>AU105</f>
-        <v>7.2700946841839323E-2</v>
+        <v>7.2698962562023697E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="61" t="s">
+      <c r="AN109" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="62"/>
+      <c r="AO109" s="58"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="48" t="s">
+      <c r="AN110" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="49">
+      <c r="AO110" s="47">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>90414289904.14418</v>
+        <v>144517384699.57388</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="48" t="s">
+      <c r="AN111" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="AO111" s="49">
+      <c r="AO111" s="47">
         <f>AM40</f>
         <v>11049000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="48" t="s">
+      <c r="AN112" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="49">
+      <c r="AO112" s="47">
         <f>AU99</f>
         <v>9039000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="48" t="s">
+      <c r="AN113" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="49">
+      <c r="AO113" s="47">
         <f>AO110+AO111-AO112</f>
-        <v>92424289904.14418</v>
+        <v>146527384699.57388</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="48" t="s">
+      <c r="AN114" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="AO114" s="50">
+      <c r="AO114" s="48">
         <f>AM34*(1+(5*AS16))</f>
         <v>448597263.29333401</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="51" t="s">
+      <c r="AN115" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AO115" s="52">
+      <c r="AO115" s="50">
         <f>AO113/AO114</f>
-        <v>206.02954468696504</v>
+        <v>326.63459340758584</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="48" t="s">
+      <c r="AN116" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="AO116" s="64" cm="1">
+      <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
-        <v>500.79</v>
+        <v>511.56</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="53" t="s">
+      <c r="AN117" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="AO117" s="54">
+      <c r="AO117" s="52">
         <f>AO115/AO116-1</f>
-        <v>-0.58859093694569575</v>
+        <v>-0.36149309287750053</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="53" t="s">
+      <c r="AN118" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="AO118" s="55" t="str">
+      <c r="AO118" s="53" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Consumer/Costco Wholesale.xlsx
+++ b/Consumer/Costco Wholesale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E265AA-8C2A-A341-AF40-837634BF4417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D1A84-B60D-E64A-8F3F-C7E67865938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1029,6 +1029,20 @@
     </xf>
     <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1046,20 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2556,10 +2556,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>564.75</v>
-    <v>443.2</v>
-    <v>0.79259999999999997</v>
-    <v>3.53</v>
-    <v>6.9479999999999993E-3</v>
+    <v>447.9</v>
+    <v>0.78779999999999994</v>
+    <v>-0.63749999999999996</v>
+    <v>-1.2160000000000001E-3</v>
     <v>USD</v>
     <v>Costco Wholesale Corporation is a global retailer with warehouse club operations in eight countries. The Company operates an international chain of membership warehouses, mainly under the Costco Wholesale name. The Company's warehouses are designed to help small- to medium-sized businesses reduce costs in purchasing for resale and for everyday business use. The Company offers merchandise in various categories, which include groceries, candy, appliances, television and media, automotive supplies, tires, toys, hardware, sporting goods, jewelry, watches, cameras, books, housewares, apparel, health and beauty aids, furniture, office supplies and office equipment. Members can also shop for private label Kirkland Signature products. It operates approximately 838 warehouses worldwide. It also operates self-service gasoline stations. The Company operates e-commerce websites in the United States, Canada, Mexico, United Kingdom, Korea, Taiwan, Japan, and Australia.</v>
     <v>304000</v>
@@ -2567,24 +2567,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027- US</v>
-    <v>513.86500000000001</v>
+    <v>523.79</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45077.999619930466</v>
+    <v>45100.775487464845</v>
     <v>0</v>
-    <v>504.95</v>
-    <v>226734646320</v>
+    <v>519.34</v>
+    <v>232015936531</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>508.86</v>
-    <v>37.899799999999999</v>
-    <v>508.03</v>
-    <v>511.56</v>
-    <v>443222000</v>
+    <v>523.13</v>
+    <v>38.836300000000001</v>
+    <v>524.20000000000005</v>
+    <v>523.5625</v>
+    <v>443148500</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>101</v>
-    <v>1835110</v>
+    <v>559186</v>
+    <v>2088425</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2737,10 +2737,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3157,7 +3157,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO122" sqref="AO122"/>
+      <selection pane="bottomRight" activeCell="AP98" sqref="AP98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3549,19 +3549,19 @@
       <c r="AM3" s="1">
         <v>226954000000</v>
       </c>
-      <c r="AN3" s="70">
+      <c r="AN3" s="64">
         <v>242400000000</v>
       </c>
-      <c r="AO3" s="70">
+      <c r="AO3" s="64">
         <v>254900000000</v>
       </c>
-      <c r="AP3" s="70">
+      <c r="AP3" s="64">
         <v>272500000000</v>
       </c>
-      <c r="AQ3" s="70">
+      <c r="AQ3" s="64">
         <v>294300000000</v>
       </c>
-      <c r="AR3" s="70">
+      <c r="AR3" s="64">
         <v>314900000000</v>
       </c>
       <c r="AS3" s="18" t="s">
@@ -5370,17 +5370,17 @@
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>1.726904036736459E-3</v>
       </c>
-      <c r="AT16" s="71">
+      <c r="AT16" s="65">
         <f>AU101/AM3</f>
-        <v>0.99903348837209305</v>
-      </c>
-      <c r="AU16" s="71">
+        <v>1.022303799584938</v>
+      </c>
+      <c r="AU16" s="65">
         <f>AU101/AM28</f>
-        <v>38.797851868583159</v>
-      </c>
-      <c r="AV16" s="72">
+        <v>39.701563403661872</v>
+      </c>
+      <c r="AV16" s="66">
         <f>AU101/AM106</f>
-        <v>64.762823856041138</v>
+        <v>66.271332913738931</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5751,36 +5751,36 @@
       <c r="AM19" s="10">
         <v>9827000000</v>
       </c>
-      <c r="AN19" s="68">
+      <c r="AN19" s="62">
         <v>10540000000</v>
       </c>
-      <c r="AO19" s="68">
+      <c r="AO19" s="62">
         <v>11298000000</v>
       </c>
-      <c r="AP19" s="68">
+      <c r="AP19" s="62">
         <v>12473000000</v>
       </c>
-      <c r="AQ19" s="68">
+      <c r="AQ19" s="62">
         <v>13849000000</v>
       </c>
-      <c r="AR19" s="68">
+      <c r="AR19" s="62">
         <v>15193000000</v>
       </c>
       <c r="AS19" s="29">
         <f>AM40-AM56-AM61</f>
         <v>2010000000</v>
       </c>
-      <c r="AT19" s="71">
+      <c r="AT19" s="65">
         <f>AU101/AN3</f>
-        <v>0.93537395346534657</v>
-      </c>
-      <c r="AU19" s="71">
+        <v>0.95716145433580857</v>
+      </c>
+      <c r="AU19" s="65">
         <f>AU101/AN28</f>
-        <v>35.109112158563022</v>
-      </c>
-      <c r="AV19" s="72">
+        <v>35.926902528801484</v>
+      </c>
+      <c r="AV19" s="66">
         <f>AU101/AN105</f>
-        <v>43.974912009309541</v>
+        <v>44.999211895073699</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6075,23 +6075,23 @@
       <c r="AM21" s="2">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="AN21" s="69">
+      <c r="AN21" s="63">
         <f>AN19/AN3</f>
         <v>4.3481848184818483E-2</v>
       </c>
-      <c r="AO21" s="69">
+      <c r="AO21" s="63">
         <f t="shared" ref="AO21:AR21" si="11">AO19/AO3</f>
         <v>4.4323264025107882E-2</v>
       </c>
-      <c r="AP21" s="69">
+      <c r="AP21" s="63">
         <f t="shared" si="11"/>
         <v>4.5772477064220184E-2</v>
       </c>
-      <c r="AQ21" s="69">
+      <c r="AQ21" s="63">
         <f t="shared" si="11"/>
         <v>4.7057424396873937E-2</v>
       </c>
-      <c r="AR21" s="69">
+      <c r="AR21" s="63">
         <f t="shared" si="11"/>
         <v>4.8247062559542711E-2</v>
       </c>
@@ -6928,19 +6928,19 @@
       <c r="AM28" s="11">
         <v>5844000000</v>
       </c>
-      <c r="AN28" s="65">
+      <c r="AN28" s="59">
         <v>6458000000</v>
       </c>
-      <c r="AO28" s="65">
+      <c r="AO28" s="59">
         <v>6912000000</v>
       </c>
-      <c r="AP28" s="65">
+      <c r="AP28" s="59">
         <v>7750000000</v>
       </c>
-      <c r="AQ28" s="65">
+      <c r="AQ28" s="59">
         <v>8243000000</v>
       </c>
-      <c r="AR28" s="65">
+      <c r="AR28" s="59">
         <v>8999000000</v>
       </c>
     </row>
@@ -7236,23 +7236,23 @@
       <c r="AM30" s="2">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="AN30" s="66">
+      <c r="AN30" s="60">
         <f>AN28/AN3</f>
         <v>2.6641914191419144E-2</v>
       </c>
-      <c r="AO30" s="66">
+      <c r="AO30" s="60">
         <f t="shared" ref="AO30:AR30" si="20">AO28/AO3</f>
         <v>2.7116516280894468E-2</v>
       </c>
-      <c r="AP30" s="66">
+      <c r="AP30" s="60">
         <f t="shared" si="20"/>
         <v>2.8440366972477066E-2</v>
       </c>
-      <c r="AQ30" s="66">
+      <c r="AQ30" s="60">
         <f t="shared" si="20"/>
         <v>2.8008834522595991E-2</v>
       </c>
-      <c r="AR30" s="66">
+      <c r="AR30" s="60">
         <f t="shared" si="20"/>
         <v>2.857732613528104E-2</v>
       </c>
@@ -7375,19 +7375,19 @@
       <c r="AM31" s="12">
         <v>13.17</v>
       </c>
-      <c r="AN31" s="67">
+      <c r="AN31" s="61">
         <v>14.56</v>
       </c>
-      <c r="AO31" s="67">
+      <c r="AO31" s="61">
         <v>15.59</v>
       </c>
-      <c r="AP31" s="67">
+      <c r="AP31" s="61">
         <v>17.48</v>
       </c>
-      <c r="AQ31" s="67">
+      <c r="AQ31" s="61">
         <v>18.59</v>
       </c>
-      <c r="AR31" s="67">
+      <c r="AR31" s="61">
         <v>20.29</v>
       </c>
     </row>
@@ -13651,10 +13651,10 @@
       <c r="AM83" s="1">
         <v>-4003000000</v>
       </c>
-      <c r="AT83" s="59" t="s">
+      <c r="AT83" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="60"/>
+      <c r="AU83" s="70"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13774,10 +13774,10 @@
       <c r="AM84" s="1">
         <v>1891000000</v>
       </c>
-      <c r="AT84" s="61" t="s">
+      <c r="AT84" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="62"/>
+      <c r="AU84" s="72"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14943,10 +14943,10 @@
       <c r="AM93" s="1">
         <v>-48000000</v>
       </c>
-      <c r="AT93" s="61" t="s">
+      <c r="AT93" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="62"/>
+      <c r="AU93" s="72"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="AU95" s="55" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.79259999999999997</v>
+        <v>0.78779999999999994</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15447,7 +15447,7 @@
       </c>
       <c r="AU97" s="33">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.5071429999999995E-2</v>
+        <v>7.4864790000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15568,10 +15568,10 @@
       <c r="AM98" s="1">
         <v>-1498000000</v>
       </c>
-      <c r="AT98" s="61" t="s">
+      <c r="AT98" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="62"/>
+      <c r="AU98" s="72"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="AU100" s="31">
         <f>AU99/AU103</f>
-        <v>3.8337618054784472E-2</v>
+        <v>3.7497676380660108E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="AU101" s="47" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>226734646320</v>
+        <v>232015936531</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="AU102" s="31">
         <f>AU101/AU103</f>
-        <v>0.96166238194521558</v>
+        <v>0.96250232361933985</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16200,7 +16200,7 @@
       </c>
       <c r="AU103" s="35">
         <f>AU99+AU101</f>
-        <v>235773646320</v>
+        <v>241054936531</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16321,10 +16321,10 @@
       <c r="AM104" s="11">
         <v>10203000000</v>
       </c>
-      <c r="AT104" s="61" t="s">
+      <c r="AT104" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="62"/>
+      <c r="AU104" s="72"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16479,19 +16479,19 @@
         <f t="shared" ref="AM105" si="28">(AM106/AL106)-1</f>
         <v>-0.34804469273743022</v>
       </c>
-      <c r="AN105" s="63">
+      <c r="AN105" s="57">
         <v>5156000000</v>
       </c>
-      <c r="AO105" s="63">
+      <c r="AO105" s="57">
         <v>5461000000</v>
       </c>
-      <c r="AP105" s="63">
+      <c r="AP105" s="57">
         <v>6582000000</v>
       </c>
-      <c r="AQ105" s="63">
+      <c r="AQ105" s="57">
         <v>7726000000</v>
       </c>
-      <c r="AR105" s="63">
+      <c r="AR105" s="57">
         <v>8253000000</v>
       </c>
       <c r="AS105" s="15"/>
@@ -16500,7 +16500,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2698962562023697E-2</v>
+        <v>7.2552049644253547E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16696,9 +16696,9 @@
       <c r="AO107" s="37"/>
       <c r="AP107" s="37"/>
       <c r="AQ107" s="37"/>
-      <c r="AR107" s="64">
+      <c r="AR107" s="58">
         <f>AR105*(1+AU107)/(AU108-AU107)</f>
-        <v>177348196808.26828</v>
+        <v>177896117271.19885</v>
       </c>
       <c r="AS107" s="41" t="s">
         <v>148</v>
@@ -16727,9 +16727,9 @@
         <f>AQ107+AQ106</f>
         <v>4550341646.9745426</v>
       </c>
-      <c r="AR108" s="64">
+      <c r="AR108" s="58">
         <f>AR107+AR105</f>
-        <v>185601196808.26828</v>
+        <v>186149117271.19885</v>
       </c>
       <c r="AS108" s="41" t="s">
         <v>144</v>
@@ -16739,14 +16739,14 @@
       </c>
       <c r="AU108" s="45">
         <f>AU105</f>
-        <v>7.2698962562023697E-2</v>
+        <v>7.2552049644253547E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="57" t="s">
+      <c r="AN109" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="58"/>
+      <c r="AO109" s="68"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="46" t="s">
@@ -16754,7 +16754,7 @@
       </c>
       <c r="AO110" s="47">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>144517384699.57388</v>
+        <v>144997669089.28403</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16781,7 +16781,7 @@
       </c>
       <c r="AO113" s="47">
         <f>AO110+AO111-AO112</f>
-        <v>146527384699.57388</v>
+        <v>147007669089.28403</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="AO115" s="50">
         <f>AO113/AO114</f>
-        <v>326.63459340758584</v>
+        <v>327.70522943016027</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="AO116" s="56" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
-        <v>511.56</v>
+        <v>523.5625</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16817,7 +16817,7 @@
       </c>
       <c r="AO117" s="52">
         <f>AO115/AO116-1</f>
-        <v>-0.36149309287750053</v>
+        <v>-0.37408575016323686</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Costco Wholesale.xlsx
+++ b/Consumer/Costco Wholesale.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D1A84-B60D-E64A-8F3F-C7E67865938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E1399E-913F-5041-B044-FA0C5903C208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -560,17 +557,39 @@
   <si>
     <t>Forward P/FCF</t>
   </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Yield</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -739,7 +758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -845,62 +864,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -917,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -959,108 +925,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,8 +1069,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>COST</a:t>
+              <a:t>Costco Wholesale</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1149,10 +1108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.8910891089108893E-2"/>
-          <c:y val="0.11566776855735508"/>
-          <c:w val="0.86752475247524752"/>
-          <c:h val="0.736475386149264"/>
+          <c:x val="0.1009586776859504"/>
+          <c:y val="0.14190729026838411"/>
+          <c:w val="0.83028099173553715"/>
+          <c:h val="0.62816757040770577"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1206,6 +1165,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
@@ -1331,7 +1413,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9367-904E-A1C9-0D16339BF42E}"/>
+              <c16:uniqueId val="{00000000-F174-1641-B493-ABB022459549}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1340,11 +1422,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1382,132 +1464,255 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AM$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>96400000</c:v>
+                  <c:v>46000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126100000</c:v>
+                  <c:v>58900000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150100000</c:v>
+                  <c:v>73300000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171800000</c:v>
+                  <c:v>94800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211300000</c:v>
+                  <c:v>117000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>233000000</c:v>
+                  <c:v>125400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>260400000</c:v>
+                  <c:v>134100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>269200000</c:v>
+                  <c:v>129100000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>482400000</c:v>
+                  <c:v>223200000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124000000</c:v>
+                  <c:v>-112400000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>426800000</c:v>
+                  <c:v>133800000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>585100000</c:v>
+                  <c:v>248800000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>702600000</c:v>
+                  <c:v>312200000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>962700000</c:v>
+                  <c:v>459800000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>965600000</c:v>
+                  <c:v>397300000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1306792000</c:v>
+                  <c:v>631437000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1304778000</c:v>
+                  <c:v>602089000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1479965000</c:v>
+                  <c:v>699983000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1549535000</c:v>
+                  <c:v>721000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1841345000</c:v>
+                  <c:v>882393000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2026830000</c:v>
+                  <c:v>1063092000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2266702000</c:v>
+                  <c:v>1103215000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2276376000</c:v>
+                  <c:v>1082772000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2652056000</c:v>
+                  <c:v>1282725000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2550000000</c:v>
+                  <c:v>1086000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2940000000</c:v>
+                  <c:v>1303000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3274000000</c:v>
+                  <c:v>1462000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3712000000</c:v>
+                  <c:v>1709000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4074000000</c:v>
+                  <c:v>2039000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4309000000</c:v>
+                  <c:v>2058000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4823000000</c:v>
+                  <c:v>2377000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4981000000</c:v>
+                  <c:v>2350000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5508000000</c:v>
+                  <c:v>2679000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5993000000</c:v>
+                  <c:v>3134000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6362000000</c:v>
+                  <c:v>3659000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7115000000</c:v>
+                  <c:v>4002000000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8560000000</c:v>
+                  <c:v>5007000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9827000000</c:v>
+                  <c:v>5844000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9367-904E-A1C9-0D16339BF42E}"/>
+              <c16:uniqueId val="{00000001-F174-1641-B493-ABB022459549}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,11 +1721,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1558,9 +1763,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AM$106</c:f>
+              <c:f>'Sheet 1'!$B$105:$AM$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1577,113 +1905,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-37300000</c:v>
+                  <c:v>-93057589.285714284</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-35700000</c:v>
+                  <c:v>-96571428.571428567</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19600000</c:v>
+                  <c:v>-112725446.42857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-279200000</c:v>
+                  <c:v>-363408035.71428573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-237200000</c:v>
+                  <c:v>-406300892.85714287</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-226800000</c:v>
+                  <c:v>-47299107.142857134</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-252200000</c:v>
+                  <c:v>-380569196.42857146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-80400000</c:v>
+                  <c:v>39591071.428571403</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36800000</c:v>
+                  <c:v>102617410.71428573</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>165700000</c:v>
+                  <c:v>261389732.14285707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>153000000</c:v>
+                  <c:v>272414732.14285707</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-158063000</c:v>
+                  <c:v>-102745026.78571427</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-414986000</c:v>
+                  <c:v>-357744986.60714293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-20362000</c:v>
+                  <c:v>72773745.535714149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>696543000</c:v>
+                  <c:v>749223517.85714293</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1393163000</c:v>
+                  <c:v>1476101928.5714285</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>787746000</c:v>
+                  <c:v>794341959.82142854</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>614723000</c:v>
+                  <c:v>723572285.71428561</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>690705000</c:v>
+                  <c:v>841017687.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>577602000</c:v>
+                  <c:v>671374691.96428561</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>842000000</c:v>
+                  <c:v>821683035.71428561</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1725000000</c:v>
+                  <c:v>1822022321.4285717</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1908000000</c:v>
+                  <c:v>1937138392.8571429</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1577000000</c:v>
+                  <c:v>1689566964.2857141</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1354000000</c:v>
+                  <c:v>1372379464.2857141</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1991000000</c:v>
+                  <c:v>2130375000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1892000000</c:v>
+                  <c:v>2015178571.4285712</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>643000000</c:v>
+                  <c:v>366392857.14285707</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4224000000</c:v>
+                  <c:v>4140602678.5714283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2805000000</c:v>
+                  <c:v>2517000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3358000000</c:v>
+                  <c:v>2476897321.4285717</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6051000000</c:v>
+                  <c:v>5133513392.8571434</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5370000000</c:v>
+                  <c:v>4256946428.5714283</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3501000000</c:v>
+                  <c:v>2325540178.5714283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9367-904E-A1C9-0D16339BF42E}"/>
+              <c16:uniqueId val="{00000002-F174-1641-B493-ABB022459549}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1697,11 +2025,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1774376607"/>
-        <c:axId val="1774378879"/>
+        <c:axId val="1928471680"/>
+        <c:axId val="1928473952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1774376607"/>
+        <c:axId val="1928471680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +2057,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1741,7 +2069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774378879"/>
+        <c:crossAx val="1928473952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +2077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1774378879"/>
+        <c:axId val="1928473952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1798,7 +2126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774376607"/>
+        <c:crossAx val="1928471680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1816,10 +2144,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35532382214599412"/>
-          <c:y val="0.92705163144098346"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.6012346383812512E-2"/>
+          <c:x val="0.33513758052970649"/>
+          <c:y val="0.89493052731600931"/>
+          <c:w val="0.3323694670397605"/>
+          <c:h val="5.9009733746601623E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2399,22 +2727,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE97C17F-E19E-54D0-4F4E-33665E54E7B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CF6629-4852-CEED-DB59-891D62091E91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,6 +2761,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.3220000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2555,36 +2943,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>564.75</v>
+    <v>571.16</v>
     <v>447.9</v>
-    <v>0.78779999999999994</v>
-    <v>-0.63749999999999996</v>
-    <v>-1.2160000000000001E-3</v>
+    <v>0.78690000000000004</v>
+    <v>6.36</v>
+    <v>1.1431E-2</v>
     <v>USD</v>
-    <v>Costco Wholesale Corporation is a global retailer with warehouse club operations in eight countries. The Company operates an international chain of membership warehouses, mainly under the Costco Wholesale name. The Company's warehouses are designed to help small- to medium-sized businesses reduce costs in purchasing for resale and for everyday business use. The Company offers merchandise in various categories, which include groceries, candy, appliances, television and media, automotive supplies, tires, toys, hardware, sporting goods, jewelry, watches, cameras, books, housewares, apparel, health and beauty aids, furniture, office supplies and office equipment. Members can also shop for private label Kirkland Signature products. It operates approximately 838 warehouses worldwide. It also operates self-service gasoline stations. The Company operates e-commerce websites in the United States, Canada, Mexico, United Kingdom, Korea, Taiwan, Japan, and Australia.</v>
+    <v>Costco Wholesale Corporation operates membership warehouses and e-commerce websites. The Company operates 861 warehouses, including 591 in the United States and Puerto Rico, 107 in Canada, 40 in Mexico, 33 in Japan, 29 in the United Kingdom, 18 in Korea, 15 in Australia, 14 in Taiwan, five in China, four in Spain, two in France, and one each in Iceland, New Zealand and Sweden. It also operates e-commerce sites in the United States, Canada, the United Kingdom, Mexico, Korea, Taiwan, Japan and Australia. It provides a wide selection of merchandise, convenience of specialty departments and exclusive member services. It operates through three segments: United States Operations, Canadian Operations, and Other International Operations. The Company offers merchandise categories (foods and sundries, non-foods, and fresh foods), warehouse ancillary (gasoline, pharmacy, optical, food court, hearing aids and tire installation) and other businesses (e-commerce, business centers, travel and other).</v>
     <v>304000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027- US</v>
-    <v>523.79</v>
+    <v>564.19000000000005</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45100.775487464845</v>
+    <v>45187.998000161722</v>
     <v>0</v>
-    <v>519.34</v>
-    <v>232015936531</v>
+    <v>557.46500000000003</v>
+    <v>249368523920</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>523.13</v>
-    <v>38.836300000000001</v>
-    <v>524.20000000000005</v>
-    <v>523.5625</v>
+    <v>558.17999999999995</v>
+    <v>41.690100000000001</v>
+    <v>556.36</v>
+    <v>562.72</v>
     <v>443148500</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>559186</v>
-    <v>2088425</v>
+    <v>5</v>
+    <v>1479294</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3154,10 +3542,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP98" sqref="AP98"/>
+      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3285,19 +3673,19 @@
       <c r="AM1" s="8">
         <v>2022</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="23">
         <v>2023</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="23">
         <v>2024</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="23">
         <v>2025</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AQ1" s="23">
         <v>2026</v>
       </c>
-      <c r="AR1" s="27">
+      <c r="AR1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3306,127 +3694,127 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
@@ -3549,206 +3937,206 @@
       <c r="AM3" s="1">
         <v>226954000000</v>
       </c>
-      <c r="AN3" s="64">
-        <v>242400000000</v>
-      </c>
-      <c r="AO3" s="64">
-        <v>254900000000</v>
-      </c>
-      <c r="AP3" s="64">
-        <v>272500000000</v>
-      </c>
-      <c r="AQ3" s="64">
-        <v>294300000000</v>
-      </c>
-      <c r="AR3" s="64">
-        <v>314900000000</v>
+      <c r="AN3" s="36">
+        <v>241500000000</v>
+      </c>
+      <c r="AO3" s="36">
+        <v>253200000000</v>
+      </c>
+      <c r="AP3" s="36">
+        <v>271600000000</v>
+      </c>
+      <c r="AQ3" s="36">
+        <v>292300000000</v>
+      </c>
+      <c r="AR3" s="36">
+        <v>312200000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="70">
         <f>(C3/B3)-1</f>
         <v>0.44416575790621593</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="70">
         <f>(D3/C3)-1</f>
         <v>0.24809333232651221</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="70">
         <f>(E3/D3)-1</f>
         <v>0.22618507426566237</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="70">
         <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
         <v>0.20915774411605081</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="70">
         <f t="shared" si="0"/>
         <v>7.8613400799804056E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="70">
         <f t="shared" si="0"/>
         <v>0.24810366026671704</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="70">
         <f t="shared" si="0"/>
         <v>0.1094405965353662</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="70">
         <f t="shared" si="0"/>
         <v>1.0702576432337914</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="70">
         <f t="shared" si="0"/>
         <v>8.7491009389826235E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="70">
         <f t="shared" si="0"/>
         <v>8.6483501814254238E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="70">
         <f t="shared" si="0"/>
         <v>9.2740381661910343E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="70">
         <f t="shared" si="0"/>
         <v>0.11795160095060431</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="70">
         <f t="shared" si="0"/>
         <v>0.10951157517463339</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="70">
         <f t="shared" si="0"/>
         <v>0.13127783798037895</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="70">
         <f t="shared" si="0"/>
         <v>0.1714851398601398</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="70">
         <f t="shared" si="0"/>
         <v>8.1852902982860298E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="70">
         <f t="shared" si="0"/>
         <v>0.11395976042442935</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="70">
         <f t="shared" si="0"/>
         <v>9.7595694230137253E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="70">
         <f t="shared" si="0"/>
         <v>0.13071730741676602</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="70">
         <f t="shared" si="0"/>
         <v>0.10036453744603269</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="70">
         <f t="shared" si="0"/>
         <v>0.13631751996987718</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="70">
         <f t="shared" si="0"/>
         <v>7.0637428559852999E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="70">
         <f t="shared" si="0"/>
         <v>0.12551002400537703</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="70">
         <f t="shared" si="0"/>
         <v>-1.4638186985034607E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="70">
         <f t="shared" si="0"/>
         <v>9.1344403685138964E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="70">
         <f t="shared" si="0"/>
         <v>0.14072563056474996</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="70">
         <f t="shared" si="0"/>
         <v>0.1149637294044874</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="70">
         <f t="shared" si="0"/>
         <v>6.0713961487638413E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="70">
         <f t="shared" si="0"/>
         <v>7.117045151964696E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="70">
         <f t="shared" si="0"/>
         <v>3.1596235795454453E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="70">
         <f t="shared" si="0"/>
         <v>2.1686933622492521E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="70">
         <f t="shared" si="0"/>
         <v>8.6810030407937999E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="70">
         <f t="shared" si="0"/>
         <v>9.7275721759348954E-2</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="70">
         <f t="shared" si="0"/>
         <v>7.8593829462620723E-2</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="70">
         <f t="shared" si="0"/>
         <v>9.2061059704131587E-2</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="70">
         <f t="shared" si="0"/>
         <v>0.17490900150514799</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="70">
         <f t="shared" si="0"/>
         <v>0.15834817714580285</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8057844320875693E-2</v>
+        <v>6.4092283017703977E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>5.156765676567665E-2</v>
+        <v>4.8447204968944169E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>6.9046684974499728E-2</v>
+        <v>7.2669826224328604E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>8.0000000000000071E-2</v>
+        <v>7.6215022091310702E-2</v>
       </c>
       <c r="AR4" s="16">
         <f t="shared" si="0"/>
-        <v>6.9996602106693784E-2</v>
+        <v>6.8080738966814991E-2</v>
       </c>
       <c r="AS4" s="17">
         <f>(AM4+AL4+AK4)/3</f>
@@ -3763,7 +4151,7 @@
         <v>0.17067728828051557</v>
       </c>
       <c r="AV4" s="17">
-        <f>(AM105+AL105+AK105)/3</f>
+        <f>(AM106+AL106+AK106)/3</f>
         <v>0.11379246054387467</v>
       </c>
     </row>
@@ -4005,16 +4393,16 @@
         <v>27572000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4148,7 +4536,7 @@
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="AV7" s="20">
-        <f>AM106/AM3</f>
+        <f>AM107/AM3</f>
         <v>1.5426033469337399E-2</v>
       </c>
     </row>
@@ -4273,7 +4661,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4428,16 +4816,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4445,118 +4833,118 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS10" s="17">
         <f>AM9</f>
@@ -4580,118 +4968,118 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -4813,21 +5201,21 @@
         <v>19779000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5051,22 +5439,22 @@
         <v>254397000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1">
         <v>13608000</v>
@@ -5075,7 +5463,7 @@
         <v>248000</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1">
         <v>34000000</v>
@@ -5114,7 +5502,7 @@
         <v>76000000</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" x14ac:dyDescent="0.25">
@@ -5236,16 +5624,16 @@
         <v>19779000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5366,21 +5754,21 @@
       <c r="AM16" s="1">
         <v>219161000000</v>
       </c>
-      <c r="AS16" s="28">
+      <c r="AS16" s="24">
         <f>(AM35+AL35+AK35+AJ35+AI35)/5</f>
         <v>1.726904036736459E-3</v>
       </c>
-      <c r="AT16" s="65">
+      <c r="AT16" s="37">
         <f>AU101/AM3</f>
-        <v>1.022303799584938</v>
-      </c>
-      <c r="AU16" s="65">
+        <v>1.0987624096512949</v>
+      </c>
+      <c r="AU16" s="37">
         <f>AU101/AM28</f>
-        <v>39.701563403661872</v>
-      </c>
-      <c r="AV16" s="66">
-        <f>AU101/AM106</f>
-        <v>66.271332913738931</v>
+        <v>42.670863093771388</v>
+      </c>
+      <c r="AV16" s="38">
+        <f>AU101/AM107</f>
+        <v>71.227798891745209</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5388,76 +5776,76 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>108000000</v>
@@ -5621,16 +6009,16 @@
         <v>1900000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV18" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="AU18" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5751,41 +6139,41 @@
       <c r="AM19" s="10">
         <v>9827000000</v>
       </c>
-      <c r="AN19" s="62">
-        <v>10540000000</v>
-      </c>
-      <c r="AO19" s="62">
-        <v>11298000000</v>
-      </c>
-      <c r="AP19" s="62">
+      <c r="AN19" s="34">
+        <v>10453000000</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>11283000000</v>
+      </c>
+      <c r="AP19" s="34">
         <v>12473000000</v>
       </c>
-      <c r="AQ19" s="62">
-        <v>13849000000</v>
-      </c>
-      <c r="AR19" s="62">
-        <v>15193000000</v>
-      </c>
-      <c r="AS19" s="29">
+      <c r="AQ19" s="34">
+        <v>13516000000</v>
+      </c>
+      <c r="AR19" s="34">
+        <v>14847000000</v>
+      </c>
+      <c r="AS19" s="25">
         <f>AM40-AM56-AM61</f>
         <v>2010000000</v>
       </c>
-      <c r="AT19" s="65">
+      <c r="AT19" s="37">
         <f>AU101/AN3</f>
-        <v>0.95716145433580857</v>
-      </c>
-      <c r="AU19" s="65">
+        <v>1.0325818795859214</v>
+      </c>
+      <c r="AU19" s="37">
         <f>AU101/AN28</f>
-        <v>35.926902528801484</v>
-      </c>
-      <c r="AV19" s="66">
-        <f>AU101/AN105</f>
-        <v>44.999211895073699</v>
+        <v>38.512513346718144</v>
+      </c>
+      <c r="AV19" s="38">
+        <f>AU101/AN106</f>
+        <v>49.340823886030869</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5938,26 +6326,26 @@
       </c>
       <c r="AN20" s="16">
         <f t="shared" ref="AN20" si="6">(AN19/AM19)-1</f>
-        <v>7.2555205047318605E-2</v>
+        <v>6.3702045385163331E-2</v>
       </c>
       <c r="AO20" s="16">
         <f t="shared" ref="AO20" si="7">(AO19/AN19)-1</f>
-        <v>7.1916508538899526E-2</v>
+        <v>7.9403042188845419E-2</v>
       </c>
       <c r="AP20" s="16">
         <f t="shared" ref="AP20" si="8">(AP19/AO19)-1</f>
-        <v>0.10400070808992745</v>
+        <v>0.10546840379331734</v>
       </c>
       <c r="AQ20" s="16">
         <f t="shared" ref="AQ20" si="9">(AQ19/AP19)-1</f>
-        <v>0.11031828750100225</v>
+        <v>8.3620620540367119E-2</v>
       </c>
       <c r="AR20" s="16">
         <f t="shared" ref="AR20" si="10">(AR19/AQ19)-1</f>
-        <v>9.7046718174597535E-2</v>
+        <v>9.8475880437999486E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -6075,25 +6463,31 @@
       <c r="AM21" s="2">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="AN21" s="63">
+      <c r="AN21" s="35">
         <f>AN19/AN3</f>
-        <v>4.3481848184818483E-2</v>
-      </c>
-      <c r="AO21" s="63">
+        <v>4.3283643892339546E-2</v>
+      </c>
+      <c r="AO21" s="35">
         <f t="shared" ref="AO21:AR21" si="11">AO19/AO3</f>
-        <v>4.4323264025107882E-2</v>
-      </c>
-      <c r="AP21" s="63">
+        <v>4.4561611374407582E-2</v>
+      </c>
+      <c r="AP21" s="35">
         <f t="shared" si="11"/>
-        <v>4.5772477064220184E-2</v>
-      </c>
-      <c r="AQ21" s="63">
+        <v>4.5924153166421205E-2</v>
+      </c>
+      <c r="AQ21" s="35">
         <f t="shared" si="11"/>
-        <v>4.7057424396873937E-2</v>
-      </c>
-      <c r="AR21" s="63">
+        <v>4.6240164214847758E-2</v>
+      </c>
+      <c r="AR21" s="35">
         <f t="shared" si="11"/>
-        <v>4.8247062559542711E-2</v>
+        <v>4.7556053811659192E-2</v>
+      </c>
+      <c r="AU21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -6214,6 +6608,14 @@
       <c r="AM22" s="10">
         <v>7793000000</v>
       </c>
+      <c r="AU22" s="59">
+        <f>(-1*AM98)/AU101</f>
+        <v>6.0071735456098457E-3</v>
+      </c>
+      <c r="AV22" s="58">
+        <f>AM105/AU101</f>
+        <v>9.3257165820875045E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6928,25 +7330,25 @@
       <c r="AM28" s="11">
         <v>5844000000</v>
       </c>
-      <c r="AN28" s="59">
-        <v>6458000000</v>
-      </c>
-      <c r="AO28" s="59">
-        <v>6912000000</v>
-      </c>
-      <c r="AP28" s="59">
-        <v>7750000000</v>
-      </c>
-      <c r="AQ28" s="59">
-        <v>8243000000</v>
-      </c>
-      <c r="AR28" s="59">
-        <v>8999000000</v>
+      <c r="AN28" s="31">
+        <v>6475000000</v>
+      </c>
+      <c r="AO28" s="31">
+        <v>6916000000</v>
+      </c>
+      <c r="AP28" s="31">
+        <v>7506000000</v>
+      </c>
+      <c r="AQ28" s="31">
+        <v>8105000000</v>
+      </c>
+      <c r="AR28" s="31">
+        <v>8885000000</v>
       </c>
     </row>
     <row r="29" spans="1:48" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7099,23 +7501,23 @@
       </c>
       <c r="AN29" s="16">
         <f t="shared" ref="AN29" si="15">(AN28/AM28)-1</f>
-        <v>0.10506502395619433</v>
+        <v>0.10797399041752231</v>
       </c>
       <c r="AO29" s="16">
         <f t="shared" ref="AO29" si="16">(AO28/AN28)-1</f>
-        <v>7.0300402601424672E-2</v>
+        <v>6.8108108108108079E-2</v>
       </c>
       <c r="AP29" s="16">
         <f t="shared" ref="AP29" si="17">(AP28/AO28)-1</f>
-        <v>0.12123842592592582</v>
+        <v>8.5309427414690608E-2</v>
       </c>
       <c r="AQ29" s="16">
         <f t="shared" ref="AQ29" si="18">(AQ28/AP28)-1</f>
-        <v>6.3612903225806372E-2</v>
+        <v>7.9802824407140927E-2</v>
       </c>
       <c r="AR29" s="16">
         <f t="shared" ref="AR29" si="19">(AR28/AQ28)-1</f>
-        <v>9.1714181729952715E-2</v>
+        <v>9.6236890808143016E-2</v>
       </c>
     </row>
     <row r="30" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7236,25 +7638,25 @@
       <c r="AM30" s="2">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="AN30" s="60">
+      <c r="AN30" s="32">
         <f>AN28/AN3</f>
-        <v>2.6641914191419144E-2</v>
-      </c>
-      <c r="AO30" s="60">
+        <v>2.681159420289855E-2</v>
+      </c>
+      <c r="AO30" s="32">
         <f t="shared" ref="AO30:AR30" si="20">AO28/AO3</f>
-        <v>2.7116516280894468E-2</v>
-      </c>
-      <c r="AP30" s="60">
+        <v>2.7314375987361771E-2</v>
+      </c>
+      <c r="AP30" s="32">
         <f t="shared" si="20"/>
-        <v>2.8440366972477066E-2</v>
-      </c>
-      <c r="AQ30" s="60">
+        <v>2.763622974963181E-2</v>
+      </c>
+      <c r="AQ30" s="32">
         <f t="shared" si="20"/>
-        <v>2.8008834522595991E-2</v>
-      </c>
-      <c r="AR30" s="60">
+        <v>2.7728361272665071E-2</v>
+      </c>
+      <c r="AR30" s="32">
         <f t="shared" si="20"/>
-        <v>2.857732613528104E-2</v>
+        <v>2.8459320948110187E-2</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7375,20 +7777,20 @@
       <c r="AM31" s="12">
         <v>13.17</v>
       </c>
-      <c r="AN31" s="61">
-        <v>14.56</v>
-      </c>
-      <c r="AO31" s="61">
-        <v>15.59</v>
-      </c>
-      <c r="AP31" s="61">
-        <v>17.48</v>
-      </c>
-      <c r="AQ31" s="61">
-        <v>18.59</v>
-      </c>
-      <c r="AR31" s="61">
-        <v>20.29</v>
+      <c r="AN31" s="33">
+        <v>14.61</v>
+      </c>
+      <c r="AO31" s="33">
+        <v>15.61</v>
+      </c>
+      <c r="AP31" s="33">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="AQ31" s="33">
+        <v>18.29</v>
+      </c>
+      <c r="AR31" s="33">
+        <v>20.05</v>
       </c>
     </row>
     <row r="32" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -7750,7 +8152,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7907,118 +8309,118 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -8026,118 +8428,118 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -8264,43 +8666,43 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1">
         <v>9000000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
         <v>76000000</v>
@@ -8315,10 +8717,10 @@
         <v>5000000</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1">
         <v>306747000</v>
@@ -9097,79 +9499,79 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA46" s="1">
         <v>71000000</v>
@@ -9178,37 +9580,37 @@
         <v>74000000</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD46" s="1">
         <v>63000000</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9240,94 +9642,94 @@
         <v>49400000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9359,55 +9761,55 @@
         <v>49400000</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA48" s="1">
         <v>71000000</v>
@@ -9416,37 +9818,37 @@
         <v>74000000</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD48" s="1">
         <v>63000000</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9454,118 +9856,118 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1">
         <v>357000000</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9573,31 +9975,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>66000000</v>
@@ -9609,7 +10011,7 @@
         <v>57000000</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1">
         <v>61000000</v>
@@ -9627,64 +10029,64 @@
         <v>146000000</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1">
         <v>179000000</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -9930,118 +10332,118 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10168,16 +10570,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>252800000</v>
@@ -10293,7 +10695,7 @@
         <v>2800000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>11800000</v>
@@ -10305,10 +10707,10 @@
         <v>800000</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>23100000</v>
@@ -10326,10 +10728,10 @@
         <v>40400000</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>10000000</v>
@@ -10371,10 +10773,10 @@
         <v>1000000</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF56" s="1">
         <v>1283000000</v>
@@ -10386,7 +10788,7 @@
         <v>86000000</v>
       </c>
       <c r="AI56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ56" s="1">
         <v>1699000000</v>
@@ -10406,79 +10808,79 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1">
         <v>401000000</v>
@@ -10496,28 +10898,28 @@
         <v>578000000</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -10525,52 +10927,52 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1">
         <v>322583000</v>
@@ -10621,22 +11023,22 @@
         <v>365000000</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11001,118 +11403,118 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11147,31 +11549,31 @@
         <v>64200000</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1">
         <v>33500000</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>209835000</v>
@@ -11213,25 +11615,25 @@
         <v>1193000000</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11239,22 +11641,22 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>100000</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1">
         <v>6800000</v>
@@ -11293,43 +11695,43 @@
         <v>266000000</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z64" s="1">
         <v>86000000</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG64" s="1">
         <v>1195000000</v>
@@ -11477,118 +11879,118 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11715,31 +12117,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>2000000</v>
@@ -11751,7 +12153,7 @@
         <v>2000000</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1">
         <v>2000000</v>
@@ -12429,118 +12831,118 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AM74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="21" x14ac:dyDescent="0.25">
@@ -12548,118 +12950,118 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12667,16 +13069,16 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" s="1">
         <v>117000000</v>
@@ -12786,16 +13188,16 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F77" s="1">
         <v>19500000</v>
@@ -12905,16 +13307,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-3200000</v>
@@ -13024,76 +13426,76 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1">
         <v>181000000</v>
@@ -13140,7 +13542,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="24">B79/B3</f>
@@ -13300,16 +13702,16 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-6000000</v>
@@ -13419,118 +13821,118 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:47" ht="21" x14ac:dyDescent="0.25">
@@ -13538,16 +13940,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1">
         <v>-49900000</v>
@@ -13651,86 +14053,86 @@
       <c r="AM83" s="1">
         <v>-4003000000</v>
       </c>
-      <c r="AT83" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU83" s="70"/>
+      <c r="AT83" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU83" s="68"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1">
         <v>255000000</v>
@@ -13774,89 +14176,89 @@
       <c r="AM84" s="1">
         <v>1891000000</v>
       </c>
-      <c r="AT84" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU84" s="72"/>
+      <c r="AT84" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU84" s="69"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1">
         <v>-21485000</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA85" s="1">
         <v>283000000</v>
@@ -13897,10 +14299,10 @@
       <c r="AM85" s="1">
         <v>549000000</v>
       </c>
-      <c r="AT85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU85" s="24">
+      <c r="AT85" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU85" s="40">
         <f>AM17</f>
         <v>158000000</v>
       </c>
@@ -13910,16 +14312,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>-4400000</v>
@@ -14023,10 +14425,10 @@
       <c r="AM86" s="1">
         <v>453000000</v>
       </c>
-      <c r="AT86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU86" s="24">
+      <c r="AT86" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU86" s="40">
         <f>AM56</f>
         <v>73000000</v>
       </c>
@@ -14036,16 +14438,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F87" s="10">
         <v>122900000</v>
@@ -14149,10 +14551,10 @@
       <c r="AM87" s="10">
         <v>7392000000</v>
       </c>
-      <c r="AT87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU87" s="24">
+      <c r="AT87" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU87" s="40">
         <f>AM61</f>
         <v>8966000000</v>
       </c>
@@ -14162,16 +14564,16 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F88" s="1">
         <v>-160200000</v>
@@ -14275,17 +14677,17 @@
       <c r="AM88" s="1">
         <v>-3891000000</v>
       </c>
-      <c r="AT88" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU88" s="31">
+      <c r="AT88" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU88" s="42">
         <f>AU85/(AU86+AU87)</f>
         <v>1.7479809713463877E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="25">(-1*B88)/B3</f>
@@ -14439,10 +14841,10 @@
         <f t="shared" si="25"/>
         <v>1.7144443367378411E-2</v>
       </c>
-      <c r="AT89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU89" s="24">
+      <c r="AT89" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU89" s="40">
         <f>AM27</f>
         <v>1925000000</v>
       </c>
@@ -14452,123 +14854,123 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>165000000</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1">
         <v>-1163000000</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AU90" s="24">
+      <c r="AU90" s="40">
         <f>AM25</f>
         <v>7840000000</v>
       </c>
@@ -14578,16 +14980,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-842100000</v>
@@ -14602,19 +15004,19 @@
         <v>-7566300000</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1">
         <v>-75500000</v>
@@ -14623,16 +15025,16 @@
         <v>-181100000</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1">
         <v>-303945000</v>
@@ -14691,10 +15093,10 @@
       <c r="AM91" s="1">
         <v>-1121000000</v>
       </c>
-      <c r="AT91" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU91" s="31">
+      <c r="AT91" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU91" s="42">
         <f>AU89/AU90</f>
         <v>0.24553571428571427</v>
       </c>
@@ -14704,16 +15106,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>990200000</v>
@@ -14737,16 +15139,16 @@
         <v>9300000</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1">
         <v>208959000</v>
@@ -14758,10 +15160,10 @@
         <v>4928000</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1">
         <v>2668888000</v>
@@ -14817,10 +15219,10 @@
       <c r="AM92" s="1">
         <v>1145000000</v>
       </c>
-      <c r="AT92" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU92" s="33">
+      <c r="AT92" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU92" s="42">
         <f>AU88*(1-AU91)</f>
         <v>1.3187892149890157E-2</v>
       </c>
@@ -14830,16 +15232,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1">
         <v>-44100000</v>
@@ -14943,26 +15345,26 @@
       <c r="AM93" s="1">
         <v>-48000000</v>
       </c>
-      <c r="AT93" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU93" s="72"/>
+      <c r="AT93" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU93" s="69"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="10">
         <v>-56200000</v>
@@ -15066,11 +15468,12 @@
       <c r="AM94" s="10">
         <v>-3915000000</v>
       </c>
-      <c r="AT94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU94" s="34">
-        <v>4.095E-2</v>
+      <c r="AT94" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU94" s="57">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.3220000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15078,76 +15481,76 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-1805000000</v>
@@ -15191,12 +15594,12 @@
       <c r="AM95" s="1">
         <v>-800000000</v>
       </c>
-      <c r="AT95" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU95" s="55" cm="1">
+      <c r="AT95" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU95" s="45" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.78779999999999994</v>
+        <v>0.78690000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15204,16 +15607,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>13300000</v>
@@ -15276,51 +15679,51 @@
         <v>323632000</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU96" s="34">
+        <v>91</v>
+      </c>
+      <c r="AT96" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU96" s="43">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15329,19 +15732,19 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-52200000</v>
@@ -15359,34 +15762,34 @@
         <v>-500000</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-99946000</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1">
         <v>-413252000</v>
@@ -15442,12 +15845,12 @@
       <c r="AM97" s="1">
         <v>-439000000</v>
       </c>
-      <c r="AT97" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU97" s="33">
+      <c r="AT97" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU97" s="42">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.4864790000000001E-2</v>
+        <v>7.5309782000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15455,61 +15858,61 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-74600000</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1">
         <v>-92137000</v>
@@ -15568,26 +15971,26 @@
       <c r="AM98" s="1">
         <v>-1498000000</v>
       </c>
-      <c r="AT98" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU98" s="72"/>
+      <c r="AT98" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU98" s="69"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>-100000</v>
@@ -15691,10 +16094,10 @@
       <c r="AM99" s="1">
         <v>-1546000000</v>
       </c>
-      <c r="AT99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU99" s="24">
+      <c r="AT99" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU99" s="40">
         <f>AU86+AU87</f>
         <v>9039000000</v>
       </c>
@@ -15704,16 +16107,16 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F100" s="10">
         <v>-61400000</v>
@@ -15817,12 +16220,12 @@
       <c r="AM100" s="10">
         <v>-4283000000</v>
       </c>
-      <c r="AT100" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU100" s="31">
+      <c r="AT100" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU100" s="42">
         <f>AU99/AU103</f>
-        <v>3.7497676380660108E-2</v>
+        <v>3.4979631641059994E-2</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15830,28 +16233,28 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1">
         <v>-5000000</v>
@@ -15943,12 +16346,12 @@
       <c r="AM101" s="1">
         <v>-249000000</v>
       </c>
-      <c r="AT101" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU101" s="47" cm="1">
+      <c r="AT101" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU101" s="46" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>232015936531</v>
+        <v>249368523920</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15956,16 +16359,16 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F102" s="10">
         <v>-61400000</v>
@@ -16069,12 +16472,12 @@
       <c r="AM102" s="10">
         <v>-1055000000</v>
       </c>
-      <c r="AT102" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU102" s="31">
+      <c r="AT102" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU102" s="42">
         <f>AU101/AU103</f>
-        <v>0.96250232361933985</v>
+        <v>0.96502036835894001</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16082,16 +16485,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>-11800000</v>
@@ -16195,12 +16598,15 @@
       <c r="AM103" s="1">
         <v>11258000000</v>
       </c>
-      <c r="AT103" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU103" s="35">
+      <c r="AS103" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT103" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU103" s="47">
         <f>AU99+AU101</f>
-        <v>241054936531</v>
+        <v>258407523920</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16208,46 +16614,46 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P104" s="11">
         <v>440600000</v>
@@ -16321,510 +16727,652 @@
       <c r="AM104" s="11">
         <v>10203000000</v>
       </c>
-      <c r="AT104" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU104" s="72"/>
+      <c r="AN104" s="56">
+        <f>(AN106/AM105)-1</f>
+        <v>1.1732585171263974</v>
+      </c>
+      <c r="AO104" s="56">
+        <f>(AO106/AN106)-1</f>
+        <v>7.7166600712307076E-2</v>
+      </c>
+      <c r="AP104" s="56">
+        <f>(AP106/AO106)-1</f>
+        <v>0.20554739162380598</v>
+      </c>
+      <c r="AQ104" s="56">
+        <f>(AQ106/AP106)-1</f>
+        <v>0.13423739143684288</v>
+      </c>
+      <c r="AR104" s="56">
+        <f>(AR106/AQ106)-1</f>
+        <v>0.11499193981730249</v>
+      </c>
+      <c r="AS104" s="56">
+        <f>SUM(AN104:AR104)/5</f>
+        <v>0.34104036814333116</v>
+      </c>
+      <c r="AT104" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU104" s="69"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AL105" si="26">(B22*(1-$AU$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="26"/>
+        <v>-93057589.285714284</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="26"/>
+        <v>-96571428.571428567</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="26"/>
+        <v>-112725446.42857143</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="26"/>
+        <v>-363408035.71428573</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="26"/>
+        <v>-406300892.85714287</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="26"/>
+        <v>-47299107.142857134</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="26"/>
+        <v>-380569196.42857146</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="26"/>
+        <v>39591071.428571403</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="26"/>
+        <v>102617410.71428573</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="26"/>
+        <v>261389732.14285707</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="26"/>
+        <v>272414732.14285707</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="26"/>
+        <v>-102745026.78571427</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="26"/>
+        <v>-357744986.60714293</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="26"/>
+        <v>72773745.535714149</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="26"/>
+        <v>749223517.85714293</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="26"/>
+        <v>1476101928.5714285</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="26"/>
+        <v>794341959.82142854</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="26"/>
+        <v>723572285.71428561</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="26"/>
+        <v>841017687.5</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="26"/>
+        <v>671374691.96428561</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="26"/>
+        <v>821683035.71428561</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="26"/>
+        <v>1822022321.4285717</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="26"/>
+        <v>1937138392.8571429</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="26"/>
+        <v>1689566964.2857141</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="26"/>
+        <v>1372379464.2857141</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="26"/>
+        <v>2130375000</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="26"/>
+        <v>2015178571.4285712</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="26"/>
+        <v>366392857.14285707</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="26"/>
+        <v>4140602678.5714283</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="26"/>
+        <v>2517000000</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="26"/>
+        <v>2476897321.4285717</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="26"/>
+        <v>5133513392.8571434</v>
+      </c>
+      <c r="AL105" s="1">
+        <f t="shared" si="26"/>
+        <v>4256946428.5714283</v>
+      </c>
+      <c r="AM105" s="1">
+        <f>(AM22*(1-$AU$91))+AM77+AM88+AM81</f>
+        <v>2325540178.5714283</v>
+      </c>
+      <c r="AN105" s="26">
+        <f>AM105*(1+$AU$106)</f>
+        <v>2478795636.8877282</v>
+      </c>
+      <c r="AO105" s="26">
+        <f t="shared" ref="AO105:AR105" si="27">AN105*(1+$AU$106)</f>
+        <v>2642150785.4696107</v>
+      </c>
+      <c r="AP105" s="26">
+        <f t="shared" si="27"/>
+        <v>2816271204.1573067</v>
+      </c>
+      <c r="AQ105" s="26">
+        <f t="shared" si="27"/>
+        <v>3001866335.1781182</v>
+      </c>
+      <c r="AR105" s="26">
+        <f t="shared" si="27"/>
+        <v>3199692373.7222481</v>
+      </c>
+      <c r="AS105" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT105" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15" t="e">
-        <f>(F106/E106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-4.2895442359249358E-2</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AK105" si="26">(H106/G106)-1</f>
-        <v>-0.4509803921568627</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="26"/>
-        <v>13.244897959183673</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.15042979942693413</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="26"/>
-        <v>-4.3844856661045539E-2</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.11199294532627868</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.68120539254559875</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="26"/>
-        <v>-1.4577114427860698</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="26"/>
-        <v>3.5027173913043477</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="26"/>
-        <v>-7.664453832226914E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="26"/>
-        <v>-2.0330915032679737</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="26"/>
-        <v>1.625446815510271</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.95093328449634451</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="26"/>
-        <v>-35.207985463117573</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="26"/>
-        <v>1.000110545939016</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.43456293341123764</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.21964313370045674</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.12360363936276997</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.1637500814385302</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.45775118507207391</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="26"/>
-        <v>1.0486935866983371</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.10608695652173905</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.1734800838574424</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.14140773620798985</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.47045790251107822</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="26"/>
-        <v>-4.9723756906077332E-2</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.66014799154334036</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="26"/>
-        <v>5.5692068429237951</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="26"/>
-        <v>-0.3359375</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.19714795008912667</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="26"/>
-        <v>0.8019654556283502</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" ref="AL105" si="27">(AL106/AK106)-1</f>
-        <v>-0.11254338125929597</v>
-      </c>
-      <c r="AM105" s="15">
-        <f t="shared" ref="AM105" si="28">(AM106/AL106)-1</f>
-        <v>-0.34804469273743022</v>
-      </c>
-      <c r="AN105" s="57">
-        <v>5156000000</v>
-      </c>
-      <c r="AO105" s="57">
-        <v>5461000000</v>
-      </c>
-      <c r="AP105" s="57">
-        <v>6582000000</v>
-      </c>
-      <c r="AQ105" s="57">
-        <v>7726000000</v>
-      </c>
-      <c r="AR105" s="57">
-        <v>8253000000</v>
-      </c>
-      <c r="AS105" s="15"/>
-      <c r="AT105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU105" s="26">
+      <c r="AU105" s="49">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2552049644253547E-2</v>
+        <v>7.3136781176196666E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-37300000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-35700000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-19600000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-279200000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-237200000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-226800000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-252200000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-80400000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>36800000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>165700000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>153000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>-158063000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-414986000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-20362000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>696543000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1393163000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>787746000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>614723000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>690705000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>577602000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>842000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1725000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1908000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1577000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>1354000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>1991000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1892000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>643000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>4224000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>2805000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>3358000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>6051000000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>5370000000</v>
-      </c>
-      <c r="AM106" s="1">
-        <v>3501000000</v>
-      </c>
-      <c r="AN106" s="36">
-        <f>AM106*(1+$AU$106)</f>
-        <v>3738135885.4750562</v>
-      </c>
-      <c r="AO106" s="36">
-        <f t="shared" ref="AO106:AR106" si="29">AN106*(1+$AU$106)</f>
-        <v>3991333875.5430965</v>
-      </c>
-      <c r="AP106" s="36">
-        <f t="shared" si="29"/>
-        <v>4261681916.9037075</v>
-      </c>
-      <c r="AQ106" s="36">
-        <f t="shared" si="29"/>
-        <v>4550341646.9745426</v>
-      </c>
-      <c r="AR106" s="36">
-        <f t="shared" si="29"/>
-        <v>4858553385.2405615</v>
-      </c>
-      <c r="AS106" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT106" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU106" s="39">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AM106" si="28">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="28"/>
+        <v>-4.2895442359249358E-2</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.4509803921568627</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="28"/>
+        <v>13.244897959183673</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.15042979942693413</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="28"/>
+        <v>-4.3844856661045539E-2</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.11199294532627868</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.68120539254559875</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="28"/>
+        <v>-1.4577114427860698</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="28"/>
+        <v>3.5027173913043477</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="28"/>
+        <v>-7.664453832226914E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="28"/>
+        <v>-2.0330915032679737</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="28"/>
+        <v>1.625446815510271</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.95093328449634451</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="28"/>
+        <v>-35.207985463117573</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="28"/>
+        <v>1.000110545939016</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.43456293341123764</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.21964313370045674</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.12360363936276997</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.1637500814385302</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.45775118507207391</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="28"/>
+        <v>1.0486935866983371</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.10608695652173905</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.1734800838574424</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.14140773620798985</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.47045790251107822</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="28"/>
+        <v>-4.9723756906077332E-2</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.66014799154334036</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="28"/>
+        <v>5.5692068429237951</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.3359375</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.19714795008912667</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="28"/>
+        <v>0.8019654556283502</v>
+      </c>
+      <c r="AL106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.11254338125929597</v>
+      </c>
+      <c r="AM106" s="15">
+        <f t="shared" si="28"/>
+        <v>-0.34804469273743022</v>
+      </c>
+      <c r="AN106" s="29">
+        <v>5054000000</v>
+      </c>
+      <c r="AO106" s="29">
+        <v>5444000000</v>
+      </c>
+      <c r="AP106" s="29">
+        <v>6563000000</v>
+      </c>
+      <c r="AQ106" s="29">
+        <v>7444000000</v>
+      </c>
+      <c r="AR106" s="29">
+        <v>8300000000</v>
+      </c>
+      <c r="AS106" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT106" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU106" s="51">
         <f>(SUM(AN4:AR4)/5)</f>
-        <v>6.7733757633549191E-2</v>
+        <v>6.5901015053820483E-2</v>
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="13"/>
-      <c r="AN107" s="37"/>
-      <c r="AO107" s="37"/>
-      <c r="AP107" s="37"/>
-      <c r="AQ107" s="37"/>
-      <c r="AR107" s="58">
-        <f>AR105*(1+AU107)/(AU108-AU107)</f>
-        <v>177896117271.19885</v>
-      </c>
-      <c r="AS107" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT107" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU107" s="43">
+      <c r="A107" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-37300000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-35700000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-19600000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-279200000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-237200000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-226800000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-252200000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-80400000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>36800000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>165700000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>153000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>-158063000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-414986000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-20362000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>696543000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1393163000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>787746000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>614723000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>690705000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>577602000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>842000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1725000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1908000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1577000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>1354000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>1991000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1892000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>643000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>4224000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>2805000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>3358000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>6051000000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>5370000000</v>
+      </c>
+      <c r="AM107" s="1">
+        <v>3501000000</v>
+      </c>
+      <c r="AN107" s="27"/>
+      <c r="AO107" s="27"/>
+      <c r="AP107" s="27"/>
+      <c r="AQ107" s="27"/>
+      <c r="AR107" s="30">
+        <f>AR106*(1+AU107)/(AU108-AU107)</f>
+        <v>176735955170.32419</v>
+      </c>
+      <c r="AS107" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT107" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU107" s="53">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="40">
-        <f t="shared" ref="AN108:AP108" si="30">AN107+AN106</f>
-        <v>3738135885.4750562</v>
-      </c>
-      <c r="AO108" s="40">
-        <f t="shared" si="30"/>
-        <v>3991333875.5430965</v>
-      </c>
-      <c r="AP108" s="40">
-        <f t="shared" si="30"/>
-        <v>4261681916.9037075</v>
-      </c>
-      <c r="AQ108" s="40">
+      <c r="AN108" s="30">
+        <f t="shared" ref="AN108:AP108" si="29">AN107+AN106</f>
+        <v>5054000000</v>
+      </c>
+      <c r="AO108" s="30">
+        <f t="shared" si="29"/>
+        <v>5444000000</v>
+      </c>
+      <c r="AP108" s="30">
+        <f t="shared" si="29"/>
+        <v>6563000000</v>
+      </c>
+      <c r="AQ108" s="30">
         <f>AQ107+AQ106</f>
-        <v>4550341646.9745426</v>
-      </c>
-      <c r="AR108" s="58">
-        <f>AR107+AR105</f>
-        <v>186149117271.19885</v>
-      </c>
-      <c r="AS108" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT108" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU108" s="45">
+        <v>7444000000</v>
+      </c>
+      <c r="AR108" s="30">
+        <f>AR107+AR106</f>
+        <v>185035955170.32419</v>
+      </c>
+      <c r="AS108" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT108" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU108" s="51">
         <f>AU105</f>
-        <v>7.2552049644253547E-2</v>
+        <v>7.3136781176196666E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO109" s="68"/>
+      <c r="AN109" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO109" s="66"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO110" s="47">
+      <c r="AN110" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO110" s="46">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>144997669089.28403</v>
+        <v>150371393862.59256</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO111" s="47">
+      <c r="AN111" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO111" s="46">
         <f>AM40</f>
         <v>11049000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO112" s="47">
+      <c r="AN112" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO112" s="46">
         <f>AU99</f>
         <v>9039000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO113" s="47">
+      <c r="AN113" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO113" s="46">
         <f>AO110+AO111-AO112</f>
-        <v>147007669089.28403</v>
+        <v>152381393862.59256</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO114" s="48">
+      <c r="AN114" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO114" s="60">
         <f>AM34*(1+(5*AS16))</f>
         <v>448597263.29333401</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO115" s="50">
+      <c r="AN115" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO115" s="62">
         <f>AO113/AO114</f>
-        <v>327.70522943016027</v>
+        <v>339.68418073685757</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO116" s="56" cm="1">
+      <c r="AN116" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO116" s="63" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price",TRUE)</f>
-        <v>523.5625</v>
+        <v>562.72</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO117" s="52">
+      <c r="AN117" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO117" s="64">
         <f>AO115/AO116-1</f>
-        <v>-0.37408575016323686</v>
+        <v>-0.39635310503117438</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO118" s="53" t="str">
+      <c r="AN118" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO118" s="65" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16917,8 +17465,9 @@
     <hyperlink ref="AM36" r:id="rId76" tooltip="https://www.sec.gov/Archives/edgar/data/909832/000090983222000021/0000909832-22-000021-index.htm" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="AM74" r:id="rId77" tooltip="https://www.sec.gov/Archives/edgar/data/909832/000090983222000021/0000909832-22-000021-index.htm" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="AN1" r:id="rId78" display="https://finbox.com/NASDAQGS:COST/explorer/revenue_proj" xr:uid="{3D23BC3A-EC14-8140-A26E-80CF7A5E4A50}"/>
+    <hyperlink ref="AS106" r:id="rId79" xr:uid="{88FBC64E-9012-9143-BE9D-10B5A31FF597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
--- a/Consumer/Costco Wholesale.xlsx
+++ b/Consumer/Costco Wholesale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040ED311-7F1F-604D-9F5A-229181690609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80593BC2-8695-E745-ACFF-B65DEE5845E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1383,7 +1383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1662,6 +1662,9 @@
     <xf numFmtId="10" fontId="20" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1695,12 +1698,12 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1732,11 +1735,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1754,7 +1760,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1766,6 +1772,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1891,11 +1900,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>599.94000000000005</v>
+    <v>613.61</v>
     <v>447.9</v>
-    <v>0.77980000000000005</v>
-    <v>-6.14</v>
-    <v>-1.0337000000000001E-2</v>
+    <v>0.74129999999999996</v>
+    <v>-0.17</v>
+    <v>-2.7829999999999999E-4</v>
+    <v>0.42</v>
+    <v>6.8760000000000002E-4</v>
     <v>USD</v>
     <v>Costco Wholesale Corporation operates membership warehouses and e-commerce websites. The Company operates 861 warehouses, including 591 in the United States and Puerto Rico, 107 in Canada, 40 in Mexico, 33 in Japan, 29 in the United Kingdom, 18 in Korea, 15 in Australia, 14 in Taiwan, five in China, four in Spain, two in France, and one each in Iceland, New Zealand and Sweden. It also operates e-commerce sites in the United States, Canada, the United Kingdom, Mexico, Korea, Taiwan, Japan and Australia. It provides a wide selection of merchandise, convenience of specialty departments and exclusive member services. It operates through three segments: United States Operations, Canadian Operations, and Other International Operations. The Company offers merchandise categories (foods and sundries, non-foods, and fresh foods), warehouse ancillary (gasoline, pharmacy, optical, food court, hearing aids and tire installation) and other businesses (e-commerce, business centers, travel and other).</v>
     <v>316000</v>
@@ -1903,24 +1914,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>999 Lake Dr, ISSAQUAH, WA, 98027- US</v>
-    <v>595.21</v>
+    <v>613.61</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45259.910661296097</v>
+    <v>45269.040607337498</v>
     <v>0</v>
-    <v>587.41999999999996</v>
-    <v>260269489116</v>
+    <v>607.73</v>
+    <v>270417103668</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
     <v>COSTCO WHOLESALE CORPORATION</v>
-    <v>595.20000000000005</v>
-    <v>41.524999999999999</v>
-    <v>594</v>
-    <v>587.86</v>
+    <v>608.6</v>
+    <v>43.156100000000002</v>
+    <v>610.95000000000005</v>
+    <v>610.78</v>
+    <v>611.20000000000005</v>
     <v>442740600</v>
     <v>COST</v>
     <v>COSTCO WHOLESALE CORPORATION (XNAS:COST)</v>
-    <v>795</v>
-    <v>1663970</v>
+    <v>1502329</v>
+    <v>1694284</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -1952,6 +1964,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1972,6 +1986,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1988,7 +2003,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1999,13 +2014,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2071,13 +2089,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2122,6 +2146,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2129,6 +2156,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2514,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P141" sqref="P141"/>
     </sheetView>
@@ -11555,61 +11585,61 @@
       </c>
     </row>
     <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="118" t="s">
+      <c r="A154" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="119">
+      <c r="B154" s="107">
         <v>3198000000</v>
       </c>
-      <c r="C154" s="119">
+      <c r="C154" s="107">
         <v>3057000000</v>
       </c>
-      <c r="D154" s="119">
+      <c r="D154" s="107">
         <v>3437000000</v>
       </c>
-      <c r="E154" s="119">
+      <c r="E154" s="107">
         <v>3984000000</v>
       </c>
-      <c r="F154" s="119">
+      <c r="F154" s="107">
         <v>4285000000</v>
       </c>
-      <c r="G154" s="119">
+      <c r="G154" s="107">
         <v>3292000000</v>
       </c>
-      <c r="H154" s="119">
+      <c r="H154" s="107">
         <v>6726000000</v>
       </c>
-      <c r="I154" s="119">
+      <c r="I154" s="107">
         <v>5774000000</v>
       </c>
-      <c r="J154" s="119">
+      <c r="J154" s="107">
         <v>6356000000</v>
       </c>
-      <c r="K154" s="119">
+      <c r="K154" s="107">
         <v>8861000000</v>
       </c>
-      <c r="L154" s="119">
+      <c r="L154" s="107">
         <v>8958000000</v>
       </c>
-      <c r="M154" s="119">
+      <c r="M154" s="107">
         <v>7392000000</v>
       </c>
-      <c r="N154" s="119">
+      <c r="N154" s="107">
         <v>11068000000</v>
       </c>
-      <c r="O154" s="120">
+      <c r="O154" s="108">
         <v>8458000000</v>
       </c>
-      <c r="P154" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q154" s="119">
+      <c r="P154" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q154" s="107">
         <v>3192000000</v>
       </c>
-      <c r="R154" s="119">
+      <c r="R154" s="107">
         <v>1541000000</v>
       </c>
-      <c r="S154" s="119">
+      <c r="S154" s="107">
         <v>3725000000</v>
       </c>
     </row>
@@ -12558,61 +12588,61 @@
       </c>
     </row>
     <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="118" t="s">
+      <c r="A171" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="119">
+      <c r="B171" s="107">
         <v>-1180000000</v>
       </c>
-      <c r="C171" s="119">
+      <c r="C171" s="107">
         <v>-1236000000</v>
       </c>
-      <c r="D171" s="119">
+      <c r="D171" s="107">
         <v>-2251000000</v>
       </c>
-      <c r="E171" s="119">
+      <c r="E171" s="107">
         <v>-2093000000</v>
       </c>
-      <c r="F171" s="119">
+      <c r="F171" s="107">
         <v>-2480000000</v>
       </c>
-      <c r="G171" s="119">
+      <c r="G171" s="107">
         <v>-2345000000</v>
       </c>
-      <c r="H171" s="119">
+      <c r="H171" s="107">
         <v>-2366000000</v>
       </c>
-      <c r="I171" s="119">
+      <c r="I171" s="107">
         <v>-2947000000</v>
       </c>
-      <c r="J171" s="119">
+      <c r="J171" s="107">
         <v>-2865000000</v>
       </c>
-      <c r="K171" s="119">
+      <c r="K171" s="107">
         <v>-3891000000</v>
       </c>
-      <c r="L171" s="119">
+      <c r="L171" s="107">
         <v>-3535000000</v>
       </c>
-      <c r="M171" s="119">
+      <c r="M171" s="107">
         <v>-3915000000</v>
       </c>
-      <c r="N171" s="119">
+      <c r="N171" s="107">
         <v>-4972000000</v>
       </c>
-      <c r="O171" s="120">
+      <c r="O171" s="108">
         <v>-3915000000</v>
       </c>
-      <c r="P171" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q171" s="119">
+      <c r="P171" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q171" s="107">
         <v>-808000000</v>
       </c>
-      <c r="R171" s="119">
+      <c r="R171" s="107">
         <v>-1282000000</v>
       </c>
-      <c r="S171" s="119">
+      <c r="S171" s="107">
         <v>-1825000000</v>
       </c>
     </row>
@@ -13148,61 +13178,61 @@
       </c>
     </row>
     <row r="181" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="118" t="s">
+      <c r="A181" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="119">
+      <c r="B181" s="107">
         <v>-1277000000</v>
       </c>
-      <c r="C181" s="119">
+      <c r="C181" s="107">
         <v>-2281000000</v>
       </c>
-      <c r="D181" s="119">
+      <c r="D181" s="107">
         <v>44000000</v>
       </c>
-      <c r="E181" s="119">
+      <c r="E181" s="107">
         <v>-786000000</v>
       </c>
-      <c r="F181" s="119">
+      <c r="F181" s="107">
         <v>-2324000000</v>
       </c>
-      <c r="G181" s="119">
+      <c r="G181" s="107">
         <v>-2419000000</v>
       </c>
-      <c r="H181" s="119">
+      <c r="H181" s="107">
         <v>-3218000000</v>
       </c>
-      <c r="I181" s="119">
+      <c r="I181" s="107">
         <v>-1281000000</v>
       </c>
-      <c r="J181" s="119">
+      <c r="J181" s="107">
         <v>-1147000000</v>
       </c>
-      <c r="K181" s="119">
+      <c r="K181" s="107">
         <v>-1147000000</v>
       </c>
-      <c r="L181" s="119">
+      <c r="L181" s="107">
         <v>-6488000000</v>
       </c>
-      <c r="M181" s="119">
+      <c r="M181" s="107">
         <v>-4283000000</v>
       </c>
-      <c r="N181" s="119">
+      <c r="N181" s="107">
         <v>-2614000000</v>
       </c>
-      <c r="O181" s="120">
+      <c r="O181" s="108">
         <v>-1751000000</v>
       </c>
-      <c r="P181" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q181" s="119">
+      <c r="P181" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q181" s="107">
         <v>-352000000</v>
       </c>
-      <c r="R181" s="119">
+      <c r="R181" s="107">
         <v>-735000000</v>
       </c>
-      <c r="S181" s="119">
+      <c r="S181" s="107">
         <v>-664000000</v>
       </c>
     </row>
@@ -14021,8 +14051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635FDE97-1313-4141-AC52-2FDB93C9FD88}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14030,52 +14060,52 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="e" vm="1">
+    <row r="1" spans="1:18" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-    </row>
-    <row r="2" spans="1:18" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+    </row>
+    <row r="2" spans="1:18" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>260269489116</v>
+        <v>270417103668</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>200</v>
@@ -14103,23 +14133,23 @@
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>190009575195.87177</v>
+        <v>198179581276.08893</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="39">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>3.2696879026827314E-3</v>
+        <v>3.1469902918744401E-3</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>205</v>
       </c>
       <c r="M3" s="41"/>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="114"/>
+      <c r="O3" s="117"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
@@ -14155,23 +14185,23 @@
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>161743019365.45047</v>
+        <v>168941241873.75259</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.0337000000000001E-2</v>
+        <v>-2.7829999999999999E-4</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="41"/>
-      <c r="N4" s="115" t="s">
+      <c r="N4" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="116"/>
+      <c r="O4" s="119"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
@@ -14207,14 +14237,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>168093019365.45047</v>
+        <v>175291241873.75259</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>587.86</v>
+        <v>610.78</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>219</v>
@@ -14234,7 +14264,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>1.0267040990769232</v>
+        <v>1.0667341367573964</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>221</v>
@@ -14262,14 +14292,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>7.30107383567173E-2</v>
+        <v>7.1031482866497825E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>376.95455454034885</v>
+        <v>393.09682368003359</v>
       </c>
       <c r="L6" s="57" t="s">
         <v>225</v>
@@ -14289,14 +14319,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <f>O20/F12</f>
-        <v>37.448847354820145</v>
+        <v>38.908935779568345</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="60">
         <f>F15/A3</f>
-        <v>2.0282823076688765E-2</v>
+        <v>1.9521694184259891E-2</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>228</v>
@@ -14323,7 +14353,7 @@
       </c>
       <c r="K7" s="66">
         <f>K6/K5-1</f>
-        <v>-0.35876815136197593</v>
+        <v>-0.35640193902872785</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>231</v>
@@ -14594,10 +14624,10 @@
       </c>
       <c r="L13" s="77"/>
       <c r="M13" s="77"/>
-      <c r="N13" s="115" t="s">
+      <c r="N13" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="116"/>
+      <c r="O13" s="119"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
@@ -14650,7 +14680,7 @@
       </c>
       <c r="O14" s="86">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14697,7 +14727,7 @@
       </c>
       <c r="O15" s="93" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.77980000000000005</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
@@ -14802,7 +14832,7 @@
       </c>
       <c r="O17" s="96">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.5051071999999996E-2</v>
+        <v>7.2930227E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14832,10 +14862,10 @@
       <c r="K18" s="101"/>
       <c r="L18" s="77"/>
       <c r="M18" s="77"/>
-      <c r="N18" s="115" t="s">
+      <c r="N18" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="116"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -14884,23 +14914,23 @@
       </c>
       <c r="O20" s="102" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>260269489116</v>
+        <v>270417103668</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="str" cm="1">
+      <c r="A21" s="120" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Diversified Retail</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="117" cm="1">
+      <c r="B21" s="120"/>
+      <c r="C21" s="121" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1987</v>
       </c>
-      <c r="D21" s="117"/>
+      <c r="D21" s="121"/>
       <c r="E21" s="103"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
@@ -14914,21 +14944,21 @@
       </c>
       <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>269153489116</v>
+        <v>279301103668</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106" t="str" cm="1">
+      <c r="A22" s="109" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Costco Wholesale Corporation operates membership warehouses and e-commerce websites. The Company operates 861 warehouses, including 591 in the United States and Puerto Rico, 107 in Canada, 40 in Mexico, 33 in Japan, 29 in the United Kingdom, 18 in Korea, 15 in Australia, 14 in Taiwan, five in China, four in Spain, two in France, and one each in Iceland, New Zealand and Sweden. It also operates e-commerce sites in the United States, Canada, the United Kingdom, Mexico, Korea, Taiwan, Japan and Australia. It provides a wide selection of merchandise, convenience of specialty departments and exclusive member services. It operates through three segments: United States Operations, Canadian Operations, and Other International Operations. The Company offers merchandise categories (foods and sundries, non-foods, and fresh foods), warehouse ancillary (gasoline, pharmacy, optical, food court, hearing aids and tire installation) and other businesses (e-commerce, business centers, travel and other).</v>
       </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -14942,18 +14972,18 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>3.3007188683224414E-2</v>
+        <v>3.180796596693812E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -14967,18 +14997,18 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.96699281131677561</v>
+        <v>0.96819203403306187</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -14987,20 +15017,20 @@
       <c r="K24" s="77"/>
       <c r="L24" s="77"/>
       <c r="M24" s="77"/>
-      <c r="N24" s="107" t="s">
+      <c r="N24" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="108"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -15009,21 +15039,21 @@
       <c r="K25" s="77"/>
       <c r="L25" s="77"/>
       <c r="M25" s="77"/>
-      <c r="N25" s="109">
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.30107383567173E-2</v>
-      </c>
-      <c r="O25" s="110"/>
+        <v>7.1031482866497825E-2</v>
+      </c>
+      <c r="O25" s="113"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
@@ -15039,11 +15069,11 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
@@ -15059,11 +15089,11 @@
       <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
@@ -15079,11 +15109,11 @@
       <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
@@ -15099,11 +15129,11 @@
       <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
